--- a/benchmarks/Results.xlsx
+++ b/benchmarks/Results.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\benchmarks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\cserpent\benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D34FE2F-821A-465A-BAC3-293478EF14E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B928E1-020A-41EF-9DE0-50F6260DFF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{9707B722-6BCD-7046-A6A7-0DF857F1BF2E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{9707B722-6BCD-7046-A6A7-0DF857F1BF2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="40">
   <si>
     <t>Input Size</t>
   </si>
@@ -114,9 +113,6 @@
     <t>Python</t>
   </si>
   <si>
-    <t>Cserpent</t>
-  </si>
-  <si>
     <t>Razer Blade 1.02</t>
   </si>
   <si>
@@ -159,9 +155,6 @@
     <t xml:space="preserve">  Input Size: 20</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Language Speed (Relative)</t>
   </si>
   <si>
@@ -184,6 +177,15 @@
   </si>
   <si>
     <t xml:space="preserve">  Input Size: 17</t>
+  </si>
+  <si>
+    <t>(Out of memory)</t>
+  </si>
+  <si>
+    <t>Cserpent Compiled C++</t>
+  </si>
+  <si>
+    <t>CSerpent++</t>
   </si>
 </sst>
 </file>
@@ -274,7 +276,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -592,7 +594,7 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -607,14 +609,14 @@
         <v>13</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -625,8 +627,11 @@
       <c r="D2" t="s">
         <v>14</v>
       </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
       <c r="K2" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L2" t="s">
         <v>7</v>
@@ -638,29 +643,29 @@
         <v>14</v>
       </c>
       <c r="O2" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4">
         <v>4.2000000000000029E-4</v>
@@ -670,6 +675,9 @@
       </c>
       <c r="D4">
         <v>2.5786000000000007E-2</v>
+      </c>
+      <c r="E4">
+        <v>1.1797224E-2</v>
       </c>
       <c r="L4">
         <f>D4/B4</f>
@@ -682,13 +690,14 @@
       <c r="N4">
         <v>1</v>
       </c>
-      <c r="O4" t="s">
-        <v>30</v>
+      <c r="O4">
+        <f>D4/E4</f>
+        <v>2.1857684485773947</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5">
         <v>4.5149999999999996E-2</v>
@@ -698,6 +707,9 @@
       </c>
       <c r="D5">
         <v>2.1306919999999998</v>
+      </c>
+      <c r="E5">
+        <v>0.98489759000000032</v>
       </c>
       <c r="L5">
         <f t="shared" ref="L5:L18" si="0">D5/B5</f>
@@ -710,13 +722,14 @@
       <c r="N5">
         <v>1</v>
       </c>
-      <c r="O5" t="s">
-        <v>30</v>
+      <c r="O5">
+        <f t="shared" ref="O5:O18" si="2">D5/E5</f>
+        <v>2.1633640102622236</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B6">
         <v>0.40284000000000009</v>
@@ -726,6 +739,9 @@
       </c>
       <c r="D6">
         <v>18.687531000000003</v>
+      </c>
+      <c r="E6">
+        <v>8.1746651000000039</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
@@ -738,18 +754,19 @@
       <c r="N6">
         <v>1</v>
       </c>
-      <c r="O6" t="s">
-        <v>30</v>
+      <c r="O6">
+        <f t="shared" si="2"/>
+        <v>2.286030164098098</v>
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="8" t="s">
-        <v>24</v>
+      <c r="A7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>8.5100000000000071E-3</v>
@@ -759,6 +776,9 @@
       </c>
       <c r="D8">
         <v>2.7803999999999999E-2</v>
+      </c>
+      <c r="E8">
+        <v>3.5148146000000005E-2</v>
       </c>
       <c r="L8">
         <f t="shared" si="0"/>
@@ -771,13 +791,14 @@
       <c r="N8">
         <v>1</v>
       </c>
-      <c r="O8" t="s">
-        <v>30</v>
+      <c r="O8">
+        <f t="shared" si="2"/>
+        <v>0.7910516816448866</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>0.39474000000000009</v>
@@ -787,6 +808,9 @@
       </c>
       <c r="D9">
         <v>1.4246799999999995</v>
+      </c>
+      <c r="E9">
+        <v>1.8934</v>
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
@@ -799,13 +823,14 @@
       <c r="N9">
         <v>1</v>
       </c>
-      <c r="O9" t="s">
-        <v>30</v>
+      <c r="O9">
+        <f t="shared" si="2"/>
+        <v>0.75244533643181555</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10">
         <v>1.8569200000000001</v>
@@ -815,6 +840,9 @@
       </c>
       <c r="D10">
         <v>6.9500959999999994</v>
+      </c>
+      <c r="E10">
+        <v>10.493780800000001</v>
       </c>
       <c r="L10">
         <f t="shared" si="0"/>
@@ -827,23 +855,24 @@
       <c r="N10">
         <v>1</v>
       </c>
-      <c r="O10" t="s">
-        <v>30</v>
+      <c r="O10">
+        <f t="shared" si="2"/>
+        <v>0.66230619187319006</v>
       </c>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="8" t="s">
-        <v>26</v>
+      <c r="A11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12">
         <v>2.777000000000001E-2</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12">
         <v>1.5200000000000012E-3</v>
       </c>
       <c r="D12">
@@ -860,18 +889,19 @@
       <c r="N12">
         <v>1</v>
       </c>
-      <c r="O12" t="s">
-        <v>30</v>
+      <c r="O12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>0.30101999999999984</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13">
         <v>1.7500000000000013E-3</v>
       </c>
       <c r="D13">
@@ -888,18 +918,19 @@
       <c r="N13">
         <v>1</v>
       </c>
-      <c r="O13" t="s">
-        <v>30</v>
+      <c r="O13" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14">
         <v>0.60486000000000029</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14">
         <v>1.8200000000000013E-3</v>
       </c>
       <c r="D14">
@@ -916,18 +947,19 @@
       <c r="N14">
         <v>1</v>
       </c>
-      <c r="O14" t="s">
-        <v>30</v>
+      <c r="O14" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="8" t="s">
-        <v>27</v>
+      <c r="A15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>1.1999999999999999E-3</v>
@@ -937,6 +969,9 @@
       </c>
       <c r="D16">
         <v>6.7419999999999994E-2</v>
+      </c>
+      <c r="E16">
+        <v>2.3773309999999999E-2</v>
       </c>
       <c r="L16">
         <f t="shared" si="0"/>
@@ -949,13 +984,14 @@
       <c r="N16">
         <v>1</v>
       </c>
-      <c r="O16" t="s">
-        <v>30</v>
+      <c r="O16">
+        <f t="shared" si="2"/>
+        <v>2.8359534284455972</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>2.7E-2</v>
@@ -965,6 +1001,9 @@
       </c>
       <c r="D17">
         <v>1.6220000000000001</v>
+      </c>
+      <c r="E17">
+        <v>0.61585559999999995</v>
       </c>
       <c r="L17">
         <f t="shared" si="0"/>
@@ -977,13 +1016,14 @@
       <c r="N17">
         <v>1</v>
       </c>
-      <c r="O17" t="s">
-        <v>30</v>
+      <c r="O17">
+        <f t="shared" si="2"/>
+        <v>2.6337342714753267</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>6.1676000000000002</v>
@@ -993,6 +1033,9 @@
       </c>
       <c r="D18">
         <v>339.48649999999998</v>
+      </c>
+      <c r="E18">
+        <v>135.77880000000002</v>
       </c>
       <c r="L18">
         <f t="shared" si="0"/>
@@ -1005,8 +1048,9 @@
       <c r="N18">
         <v>1</v>
       </c>
-      <c r="O18" t="s">
-        <v>30</v>
+      <c r="O18">
+        <f t="shared" si="2"/>
+        <v>2.5002909143400878</v>
       </c>
     </row>
   </sheetData>
@@ -1023,7 +1067,7 @@
   <dimension ref="A1:AF1218"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J108" sqref="J108:L108"/>
+      <selection activeCell="N316" sqref="N316:P316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" outlineLevelRow="1"/>
@@ -1054,8 +1098,11 @@
       <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="N2" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="S2" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>1</v>
@@ -1099,6 +1146,15 @@
         <v>50</v>
       </c>
       <c r="L3" s="2">
+        <v>100</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="2">
+        <v>50</v>
+      </c>
+      <c r="P3" s="2">
         <v>100</v>
       </c>
       <c r="U3" s="2" t="s">
@@ -1174,6 +1230,18 @@
         <f t="shared" si="0"/>
         <v>0.40284000000000009</v>
       </c>
+      <c r="N4" s="4">
+        <f t="shared" ref="N4:P4" si="1">AVERAGE(N5:N104)</f>
+        <v>1.1797224E-2</v>
+      </c>
+      <c r="O4" s="4">
+        <f t="shared" si="1"/>
+        <v>0.98489759000000032</v>
+      </c>
+      <c r="P4" s="4">
+        <f t="shared" si="1"/>
+        <v>8.1746651000000039</v>
+      </c>
       <c r="U4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1218,7 +1286,7 @@
     </row>
     <row r="5" spans="1:32" ht="15" hidden="1" outlineLevel="1">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B5" s="3">
         <v>1.9E-2</v>
@@ -1246,6 +1314,15 @@
       </c>
       <c r="L5" s="3">
         <v>0.376</v>
+      </c>
+      <c r="N5" s="3">
+        <v>2.4833999999999998E-2</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0.97522900000000001</v>
+      </c>
+      <c r="P5" s="3">
+        <v>7.3041999999999998</v>
       </c>
       <c r="V5" s="1">
         <v>22</v>
@@ -1303,6 +1380,15 @@
       <c r="L6" s="3">
         <v>0.36</v>
       </c>
+      <c r="N6" s="3">
+        <v>1.2812199999999999E-2</v>
+      </c>
+      <c r="O6" s="3">
+        <v>1.0092699999999999</v>
+      </c>
+      <c r="P6" s="3">
+        <v>7.3677200000000003</v>
+      </c>
       <c r="V6" s="1">
         <v>18</v>
       </c>
@@ -1359,6 +1445,15 @@
       <c r="L7" s="3">
         <v>0.35599999999999998</v>
       </c>
+      <c r="N7" s="8">
+        <v>1.1609700000000001E-2</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0.98636299999999999</v>
+      </c>
+      <c r="P7" s="3">
+        <v>7.6351500000000003</v>
+      </c>
       <c r="V7" s="1">
         <v>18</v>
       </c>
@@ -1415,6 +1510,15 @@
       <c r="L8" s="3">
         <v>0.36299999999999999</v>
       </c>
+      <c r="N8" s="3">
+        <v>1.0929700000000001E-2</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0.98446999999999996</v>
+      </c>
+      <c r="P8" s="3">
+        <v>7.9982800000000003</v>
+      </c>
       <c r="V8" s="1">
         <v>18</v>
       </c>
@@ -1471,6 +1575,15 @@
       <c r="L9" s="3">
         <v>0.372</v>
       </c>
+      <c r="N9" s="3">
+        <v>1.0940200000000001E-2</v>
+      </c>
+      <c r="O9" s="3">
+        <v>1.01861</v>
+      </c>
+      <c r="P9" s="3">
+        <v>8.2532800000000002</v>
+      </c>
       <c r="V9" s="1">
         <v>18</v>
       </c>
@@ -1527,6 +1640,15 @@
       <c r="L10" s="3">
         <v>0.36399999999999999</v>
       </c>
+      <c r="N10" s="3">
+        <v>1.1010000000000001E-2</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0.96160900000000005</v>
+      </c>
+      <c r="P10" s="3">
+        <v>8.5973600000000001</v>
+      </c>
       <c r="V10" s="1">
         <v>17</v>
       </c>
@@ -1583,6 +1705,15 @@
       <c r="L11" s="3">
         <v>0.36899999999999999</v>
       </c>
+      <c r="N11" s="3">
+        <v>1.0881999999999999E-2</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0.97012100000000001</v>
+      </c>
+      <c r="P11" s="3">
+        <v>7.7078699999999998</v>
+      </c>
       <c r="V11" s="1">
         <v>18</v>
       </c>
@@ -1639,6 +1770,15 @@
       <c r="L12" s="3">
         <v>0.39</v>
       </c>
+      <c r="N12" s="3">
+        <v>1.1481E-2</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0.97827900000000001</v>
+      </c>
+      <c r="P12" s="3">
+        <v>7.5043100000000003</v>
+      </c>
       <c r="V12" s="1">
         <v>18</v>
       </c>
@@ -1695,6 +1835,15 @@
       <c r="L13" s="3">
         <v>0.36199999999999999</v>
       </c>
+      <c r="N13" s="3">
+        <v>1.1966600000000001E-2</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0.97706199999999999</v>
+      </c>
+      <c r="P13" s="3">
+        <v>7.4543400000000002</v>
+      </c>
       <c r="V13" s="1">
         <v>17</v>
       </c>
@@ -1751,6 +1900,15 @@
       <c r="L14" s="3">
         <v>0.35899999999999999</v>
       </c>
+      <c r="N14" s="3">
+        <v>1.09795E-2</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0.964835</v>
+      </c>
+      <c r="P14" s="3">
+        <v>7.4560300000000002</v>
+      </c>
       <c r="V14" s="1">
         <v>18</v>
       </c>
@@ -1807,6 +1965,15 @@
       <c r="L15" s="3">
         <v>0.36099999999999999</v>
       </c>
+      <c r="N15" s="3">
+        <v>1.1002899999999999E-2</v>
+      </c>
+      <c r="O15" s="3">
+        <v>1.0150999999999999</v>
+      </c>
+      <c r="P15" s="3">
+        <v>7.3121200000000002</v>
+      </c>
       <c r="V15" s="1">
         <v>18</v>
       </c>
@@ -1863,6 +2030,15 @@
       <c r="L16" s="3">
         <v>0.40200000000000002</v>
       </c>
+      <c r="N16" s="3">
+        <v>1.09205E-2</v>
+      </c>
+      <c r="O16" s="3">
+        <v>1.0204899999999999</v>
+      </c>
+      <c r="P16" s="3">
+        <v>7.27142</v>
+      </c>
       <c r="V16" s="1">
         <v>18</v>
       </c>
@@ -1919,6 +2095,15 @@
       <c r="L17" s="3">
         <v>0.36099999999999999</v>
       </c>
+      <c r="N17" s="3">
+        <v>1.04557E-2</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0.97633300000000001</v>
+      </c>
+      <c r="P17" s="3">
+        <v>7.3563299999999998</v>
+      </c>
       <c r="V17" s="1">
         <v>17</v>
       </c>
@@ -1975,6 +2160,15 @@
       <c r="L18" s="3">
         <v>0.36</v>
       </c>
+      <c r="N18" s="3">
+        <v>1.0966500000000001E-2</v>
+      </c>
+      <c r="O18" s="3">
+        <v>1.0027200000000001</v>
+      </c>
+      <c r="P18" s="3">
+        <v>7.4227600000000002</v>
+      </c>
       <c r="V18" s="1">
         <v>18</v>
       </c>
@@ -2031,6 +2225,15 @@
       <c r="L19" s="3">
         <v>0.36899999999999999</v>
       </c>
+      <c r="N19" s="3">
+        <v>1.1014400000000001E-2</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0.96605700000000005</v>
+      </c>
+      <c r="P19" s="3">
+        <v>7.4917100000000003</v>
+      </c>
       <c r="V19" s="1">
         <v>18</v>
       </c>
@@ -2087,6 +2290,15 @@
       <c r="L20" s="3">
         <v>0.35599999999999998</v>
       </c>
+      <c r="N20" s="3">
+        <v>1.10066E-2</v>
+      </c>
+      <c r="O20" s="3">
+        <v>1.0098</v>
+      </c>
+      <c r="P20" s="3">
+        <v>7.42096</v>
+      </c>
       <c r="V20" s="1">
         <v>17</v>
       </c>
@@ -2143,6 +2355,15 @@
       <c r="L21" s="3">
         <v>0.56599999999999995</v>
       </c>
+      <c r="N21" s="3">
+        <v>1.19422E-2</v>
+      </c>
+      <c r="O21" s="3">
+        <v>1.0061800000000001</v>
+      </c>
+      <c r="P21" s="3">
+        <v>7.28592</v>
+      </c>
       <c r="V21" s="1">
         <v>18</v>
       </c>
@@ -2199,6 +2420,15 @@
       <c r="L22" s="3">
         <v>0.50600000000000001</v>
       </c>
+      <c r="N22" s="3">
+        <v>1.10163E-2</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0.99259900000000001</v>
+      </c>
+      <c r="P22" s="3">
+        <v>7.6250600000000004</v>
+      </c>
       <c r="V22" s="1">
         <v>18</v>
       </c>
@@ -2255,6 +2485,15 @@
       <c r="L23" s="3">
         <v>0.36299999999999999</v>
       </c>
+      <c r="N23" s="3">
+        <v>1.19728E-2</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0.97507500000000003</v>
+      </c>
+      <c r="P23" s="3">
+        <v>7.9218700000000002</v>
+      </c>
       <c r="V23" s="1">
         <v>17</v>
       </c>
@@ -2311,6 +2550,15 @@
       <c r="L24" s="3">
         <v>0.36199999999999999</v>
       </c>
+      <c r="N24" s="3">
+        <v>1.1930700000000001E-2</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0.93962800000000002</v>
+      </c>
+      <c r="P24" s="3">
+        <v>7.5076700000000001</v>
+      </c>
       <c r="V24" s="1">
         <v>18</v>
       </c>
@@ -2367,6 +2615,15 @@
       <c r="L25" s="3">
         <v>0.38500000000000001</v>
       </c>
+      <c r="N25" s="3">
+        <v>1.18516E-2</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0.98033700000000001</v>
+      </c>
+      <c r="P25" s="3">
+        <v>7.7478600000000002</v>
+      </c>
       <c r="V25" s="1">
         <v>18</v>
       </c>
@@ -2423,6 +2680,15 @@
       <c r="L26" s="3">
         <v>0.38300000000000001</v>
       </c>
+      <c r="N26" s="3">
+        <v>1.1035400000000001E-2</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0.94501000000000002</v>
+      </c>
+      <c r="P26" s="3">
+        <v>7.5026400000000004</v>
+      </c>
       <c r="V26" s="1">
         <v>18</v>
       </c>
@@ -2479,6 +2745,15 @@
       <c r="L27" s="3">
         <v>0.38400000000000001</v>
       </c>
+      <c r="N27" s="3">
+        <v>1.16054E-2</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0.942083</v>
+      </c>
+      <c r="P27" s="3">
+        <v>9.1415600000000001</v>
+      </c>
       <c r="V27" s="1">
         <v>17</v>
       </c>
@@ -2535,6 +2810,15 @@
       <c r="L28" s="3">
         <v>0.39</v>
       </c>
+      <c r="N28" s="3">
+        <v>1.0881200000000001E-2</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0.94436500000000001</v>
+      </c>
+      <c r="P28" s="3">
+        <v>8.2619600000000002</v>
+      </c>
       <c r="V28" s="1">
         <v>18</v>
       </c>
@@ -2591,6 +2875,15 @@
       <c r="L29" s="3">
         <v>0.38300000000000001</v>
       </c>
+      <c r="N29" s="3">
+        <v>1.1019599999999999E-2</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0.93701699999999999</v>
+      </c>
+      <c r="P29" s="3">
+        <v>8.6350300000000004</v>
+      </c>
       <c r="V29" s="1">
         <v>18</v>
       </c>
@@ -2647,6 +2940,15 @@
       <c r="L30" s="3">
         <v>0.39</v>
       </c>
+      <c r="N30" s="3">
+        <v>1.2677000000000001E-2</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0.93651600000000002</v>
+      </c>
+      <c r="P30" s="3">
+        <v>8.9434699999999996</v>
+      </c>
       <c r="V30" s="1">
         <v>17</v>
       </c>
@@ -2703,6 +3005,15 @@
       <c r="L31" s="3">
         <v>0.38</v>
       </c>
+      <c r="N31" s="3">
+        <v>1.08916E-2</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0.93907700000000005</v>
+      </c>
+      <c r="P31" s="3">
+        <v>9.9294899999999995</v>
+      </c>
       <c r="V31" s="1">
         <v>18</v>
       </c>
@@ -2759,6 +3070,15 @@
       <c r="L32" s="3">
         <v>0.39500000000000002</v>
       </c>
+      <c r="N32" s="3">
+        <v>1.0430699999999999E-2</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0.97549600000000003</v>
+      </c>
+      <c r="P32" s="3">
+        <v>7.9963699999999998</v>
+      </c>
       <c r="V32" s="1">
         <v>18</v>
       </c>
@@ -2815,6 +3135,15 @@
       <c r="L33" s="3">
         <v>0.38400000000000001</v>
       </c>
+      <c r="N33" s="3">
+        <v>1.49614E-2</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0.93701299999999998</v>
+      </c>
+      <c r="P33" s="3">
+        <v>9.2742599999999999</v>
+      </c>
       <c r="V33" s="1">
         <v>17</v>
       </c>
@@ -2871,6 +3200,15 @@
       <c r="L34" s="3">
         <v>0.39300000000000002</v>
       </c>
+      <c r="N34" s="3">
+        <v>1.22772E-2</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0.96668900000000002</v>
+      </c>
+      <c r="P34" s="3">
+        <v>8.4885199999999994</v>
+      </c>
       <c r="V34" s="1">
         <v>18</v>
       </c>
@@ -2927,6 +3265,15 @@
       <c r="L35" s="3">
         <v>0.39800000000000002</v>
       </c>
+      <c r="N35" s="3">
+        <v>1.29269E-2</v>
+      </c>
+      <c r="O35" s="3">
+        <v>1.00543</v>
+      </c>
+      <c r="P35" s="3">
+        <v>8.78843</v>
+      </c>
       <c r="V35" s="1">
         <v>18</v>
       </c>
@@ -2983,6 +3330,15 @@
       <c r="L36" s="3">
         <v>0.41199999999999998</v>
       </c>
+      <c r="N36" s="3">
+        <v>1.09692E-2</v>
+      </c>
+      <c r="O36" s="3">
+        <v>0.94076199999999999</v>
+      </c>
+      <c r="P36" s="3">
+        <v>8.2996300000000005</v>
+      </c>
       <c r="V36" s="1">
         <v>18</v>
       </c>
@@ -3039,6 +3395,15 @@
       <c r="L37" s="3">
         <v>0.40799999999999997</v>
       </c>
+      <c r="N37" s="3">
+        <v>1.10151E-2</v>
+      </c>
+      <c r="O37" s="3">
+        <v>0.97353800000000001</v>
+      </c>
+      <c r="P37" s="3">
+        <v>8.1294199999999996</v>
+      </c>
       <c r="V37" s="1">
         <v>17</v>
       </c>
@@ -3095,6 +3460,15 @@
       <c r="L38" s="3">
         <v>0.433</v>
       </c>
+      <c r="N38" s="3">
+        <v>1.18409E-2</v>
+      </c>
+      <c r="O38" s="3">
+        <v>0.95154700000000003</v>
+      </c>
+      <c r="P38" s="3">
+        <v>7.97037</v>
+      </c>
       <c r="V38" s="1">
         <v>18</v>
       </c>
@@ -3151,6 +3525,15 @@
       <c r="L39" s="3">
         <v>0.42699999999999999</v>
       </c>
+      <c r="N39" s="3">
+        <v>1.09508E-2</v>
+      </c>
+      <c r="O39" s="3">
+        <v>0.98697699999999999</v>
+      </c>
+      <c r="P39" s="3">
+        <v>8.4498899999999999</v>
+      </c>
       <c r="V39" s="1">
         <v>18</v>
       </c>
@@ -3207,6 +3590,15 @@
       <c r="L40" s="3">
         <v>0.42199999999999999</v>
       </c>
+      <c r="N40" s="3">
+        <v>1.0889599999999999E-2</v>
+      </c>
+      <c r="O40" s="3">
+        <v>0.94465900000000003</v>
+      </c>
+      <c r="P40" s="3">
+        <v>9.6749100000000006</v>
+      </c>
       <c r="V40" s="1">
         <v>17</v>
       </c>
@@ -3263,6 +3655,15 @@
       <c r="L41" s="3">
         <v>0.432</v>
       </c>
+      <c r="N41" s="3">
+        <v>1.18368E-2</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0.96279000000000003</v>
+      </c>
+      <c r="P41" s="3">
+        <v>8.4650999999999996</v>
+      </c>
       <c r="V41" s="1">
         <v>18</v>
       </c>
@@ -3319,6 +3720,15 @@
       <c r="L42" s="3">
         <v>0.40200000000000002</v>
       </c>
+      <c r="N42" s="3">
+        <v>1.09719E-2</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0.96360599999999996</v>
+      </c>
+      <c r="P42" s="3">
+        <v>8.3678799999999995</v>
+      </c>
       <c r="V42" s="1">
         <v>18</v>
       </c>
@@ -3375,6 +3785,15 @@
       <c r="L43" s="3">
         <v>0.39600000000000002</v>
       </c>
+      <c r="N43" s="3">
+        <v>1.14232E-2</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0.93826399999999999</v>
+      </c>
+      <c r="P43" s="3">
+        <v>7.8826700000000001</v>
+      </c>
       <c r="V43" s="1">
         <v>17</v>
       </c>
@@ -3431,6 +3850,15 @@
       <c r="L44" s="3">
         <v>0.40799999999999997</v>
       </c>
+      <c r="N44" s="3">
+        <v>1.19413E-2</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0.93713100000000005</v>
+      </c>
+      <c r="P44" s="3">
+        <v>8.1087100000000003</v>
+      </c>
       <c r="V44" s="1">
         <v>18</v>
       </c>
@@ -3487,6 +3915,15 @@
       <c r="L45" s="3">
         <v>0.42499999999999999</v>
       </c>
+      <c r="N45" s="3">
+        <v>1.09715E-2</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0.99287199999999998</v>
+      </c>
+      <c r="P45" s="3">
+        <v>8.35623</v>
+      </c>
       <c r="V45" s="1">
         <v>18</v>
       </c>
@@ -3543,6 +3980,15 @@
       <c r="L46" s="3">
         <v>0.40500000000000003</v>
       </c>
+      <c r="N46" s="3">
+        <v>1.4907200000000001E-2</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0.94564800000000004</v>
+      </c>
+      <c r="P46" s="3">
+        <v>8.0852799999999991</v>
+      </c>
       <c r="V46" s="1">
         <v>17</v>
       </c>
@@ -3599,6 +4045,15 @@
       <c r="L47" s="3">
         <v>0.442</v>
       </c>
+      <c r="N47" s="3">
+        <v>2.4069699999999999E-2</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0.94691899999999996</v>
+      </c>
+      <c r="P47" s="3">
+        <v>9.4295899999999993</v>
+      </c>
       <c r="V47" s="1">
         <v>18</v>
       </c>
@@ -3655,6 +4110,15 @@
       <c r="L48" s="3">
         <v>0.434</v>
       </c>
+      <c r="N48" s="3">
+        <v>1.37073E-2</v>
+      </c>
+      <c r="O48" s="3">
+        <v>1.07887</v>
+      </c>
+      <c r="P48" s="3">
+        <v>8.6331199999999999</v>
+      </c>
       <c r="V48" s="1">
         <v>18</v>
       </c>
@@ -3711,6 +4175,15 @@
       <c r="L49" s="3">
         <v>0.43</v>
       </c>
+      <c r="N49" s="3">
+        <v>1.1938900000000001E-2</v>
+      </c>
+      <c r="O49" s="3">
+        <v>1.0269699999999999</v>
+      </c>
+      <c r="P49" s="3">
+        <v>8.4314400000000003</v>
+      </c>
       <c r="V49" s="1">
         <v>17</v>
       </c>
@@ -3767,6 +4240,15 @@
       <c r="L50" s="3">
         <v>0.41399999999999998</v>
       </c>
+      <c r="N50" s="3">
+        <v>1.13916E-2</v>
+      </c>
+      <c r="O50" s="3">
+        <v>1.01444</v>
+      </c>
+      <c r="P50" s="3">
+        <v>8.2581100000000003</v>
+      </c>
       <c r="V50" s="1">
         <v>18</v>
       </c>
@@ -3823,6 +4305,15 @@
       <c r="L51" s="3">
         <v>0.39800000000000002</v>
       </c>
+      <c r="N51" s="3">
+        <v>1.2332900000000001E-2</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0.96426699999999999</v>
+      </c>
+      <c r="P51" s="3">
+        <v>9.0252499999999998</v>
+      </c>
       <c r="V51" s="1">
         <v>18</v>
       </c>
@@ -3879,6 +4370,15 @@
       <c r="L52" s="3">
         <v>0.42</v>
       </c>
+      <c r="N52" s="3">
+        <v>1.09386E-2</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0.95060800000000001</v>
+      </c>
+      <c r="P52" s="3">
+        <v>8.7121200000000005</v>
+      </c>
       <c r="V52" s="1">
         <v>17</v>
       </c>
@@ -3935,6 +4435,15 @@
       <c r="L53" s="3">
         <v>0.40300000000000002</v>
       </c>
+      <c r="N53" s="3">
+        <v>1.24642E-2</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0.94368200000000002</v>
+      </c>
+      <c r="P53" s="3">
+        <v>8.3841300000000007</v>
+      </c>
       <c r="V53" s="1">
         <v>18</v>
       </c>
@@ -3991,6 +4500,15 @@
       <c r="L54" s="3">
         <v>0.40899999999999997</v>
       </c>
+      <c r="N54" s="3">
+        <v>1.29672E-2</v>
+      </c>
+      <c r="O54" s="3">
+        <v>0.93874500000000005</v>
+      </c>
+      <c r="P54" s="3">
+        <v>8.8473000000000006</v>
+      </c>
       <c r="V54" s="1">
         <v>18</v>
       </c>
@@ -4047,6 +4565,15 @@
       <c r="L55" s="3">
         <v>0.41599999999999998</v>
       </c>
+      <c r="N55" s="3">
+        <v>1.08561E-2</v>
+      </c>
+      <c r="O55" s="3">
+        <v>0.97931299999999999</v>
+      </c>
+      <c r="P55" s="3">
+        <v>8.9203100000000006</v>
+      </c>
       <c r="V55" s="1">
         <v>21</v>
       </c>
@@ -4103,6 +4630,15 @@
       <c r="L56" s="3">
         <v>0.45400000000000001</v>
       </c>
+      <c r="N56" s="3">
+        <v>1.19173E-2</v>
+      </c>
+      <c r="O56" s="3">
+        <v>0.94005799999999995</v>
+      </c>
+      <c r="P56" s="3">
+        <v>8.7689500000000002</v>
+      </c>
       <c r="V56" s="1">
         <v>18</v>
       </c>
@@ -4159,6 +4695,15 @@
       <c r="L57" s="3">
         <v>0.443</v>
       </c>
+      <c r="N57" s="3">
+        <v>1.08883E-2</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0.95726</v>
+      </c>
+      <c r="P57" s="3">
+        <v>8.9384300000000003</v>
+      </c>
       <c r="V57" s="1">
         <v>17</v>
       </c>
@@ -4215,6 +4760,15 @@
       <c r="L58" s="3">
         <v>0.42299999999999999</v>
       </c>
+      <c r="N58" s="3">
+        <v>1.1534600000000001E-2</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0.95438999999999996</v>
+      </c>
+      <c r="P58" s="3">
+        <v>8.3537800000000004</v>
+      </c>
       <c r="V58" s="1">
         <v>18</v>
       </c>
@@ -4271,6 +4825,15 @@
       <c r="L59" s="3">
         <v>0.41899999999999998</v>
       </c>
+      <c r="N59" s="3">
+        <v>1.10267E-2</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0.96970400000000001</v>
+      </c>
+      <c r="P59" s="3">
+        <v>8.6531500000000001</v>
+      </c>
       <c r="V59" s="1">
         <v>18</v>
       </c>
@@ -4326,6 +4889,15 @@
       </c>
       <c r="L60" s="3">
         <v>0.40600000000000003</v>
+      </c>
+      <c r="N60" s="3">
+        <v>1.0971099999999999E-2</v>
+      </c>
+      <c r="O60" s="3">
+        <v>0.94861700000000004</v>
+      </c>
+      <c r="P60" s="3">
+        <v>7.8876799999999996</v>
       </c>
       <c r="V60" s="1">
         <v>17</v>
@@ -4383,6 +4955,15 @@
       <c r="L61" s="3">
         <v>0.439</v>
       </c>
+      <c r="N61" s="3">
+        <v>1.19682E-2</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0.95521999999999996</v>
+      </c>
+      <c r="P61" s="3">
+        <v>7.7523400000000002</v>
+      </c>
       <c r="V61" s="1">
         <v>18</v>
       </c>
@@ -4439,6 +5020,15 @@
       <c r="L62" s="3">
         <v>0.432</v>
       </c>
+      <c r="N62" s="3">
+        <v>1.189E-2</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0.94036900000000001</v>
+      </c>
+      <c r="P62" s="3">
+        <v>7.7010800000000001</v>
+      </c>
       <c r="V62" s="1">
         <v>18</v>
       </c>
@@ -4495,6 +5085,15 @@
       <c r="L63" s="3">
         <v>0.42399999999999999</v>
       </c>
+      <c r="N63" s="3">
+        <v>1.09724E-2</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0.96781700000000004</v>
+      </c>
+      <c r="P63" s="3">
+        <v>7.62188</v>
+      </c>
       <c r="V63" s="1">
         <v>17</v>
       </c>
@@ -4551,6 +5150,15 @@
       <c r="L64" s="3">
         <v>0.41099999999999998</v>
       </c>
+      <c r="N64" s="3">
+        <v>1.0945399999999999E-2</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0.96019900000000002</v>
+      </c>
+      <c r="P64" s="3">
+        <v>7.6191399999999998</v>
+      </c>
       <c r="V64" s="1">
         <v>18</v>
       </c>
@@ -4607,6 +5215,15 @@
       <c r="L65" s="3">
         <v>0.40500000000000003</v>
       </c>
+      <c r="N65" s="3">
+        <v>1.19667E-2</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0.95216500000000004</v>
+      </c>
+      <c r="P65" s="3">
+        <v>7.5523600000000002</v>
+      </c>
       <c r="V65" s="1">
         <v>18</v>
       </c>
@@ -4663,6 +5280,15 @@
       <c r="L66" s="3">
         <v>0.38800000000000001</v>
       </c>
+      <c r="N66" s="3">
+        <v>1.14088E-2</v>
+      </c>
+      <c r="O66" s="3">
+        <v>1.0474600000000001</v>
+      </c>
+      <c r="P66" s="3">
+        <v>7.4946700000000002</v>
+      </c>
       <c r="V66" s="1">
         <v>18</v>
       </c>
@@ -4719,6 +5345,15 @@
       <c r="L67" s="3">
         <v>0.38600000000000001</v>
       </c>
+      <c r="N67" s="3">
+        <v>1.0859600000000001E-2</v>
+      </c>
+      <c r="O67" s="3">
+        <v>1.1568499999999999</v>
+      </c>
+      <c r="P67" s="3">
+        <v>7.7498500000000003</v>
+      </c>
       <c r="V67" s="1">
         <v>17</v>
       </c>
@@ -4775,6 +5410,15 @@
       <c r="L68" s="3">
         <v>0.42899999999999999</v>
       </c>
+      <c r="N68" s="3">
+        <v>1.1820799999999999E-2</v>
+      </c>
+      <c r="O68" s="3">
+        <v>1.02366</v>
+      </c>
+      <c r="P68" s="3">
+        <v>7.8917900000000003</v>
+      </c>
       <c r="V68" s="1">
         <v>18</v>
       </c>
@@ -4831,6 +5475,15 @@
       <c r="L69" s="3">
         <v>0.46600000000000003</v>
       </c>
+      <c r="N69" s="3">
+        <v>1.19626E-2</v>
+      </c>
+      <c r="O69" s="3">
+        <v>1.10233</v>
+      </c>
+      <c r="P69" s="3">
+        <v>8.2402999999999995</v>
+      </c>
       <c r="V69" s="1">
         <v>18</v>
       </c>
@@ -4887,6 +5540,15 @@
       <c r="L70" s="3">
         <v>0.379</v>
       </c>
+      <c r="N70" s="3">
+        <v>1.0910599999999999E-2</v>
+      </c>
+      <c r="O70" s="3">
+        <v>1.0877399999999999</v>
+      </c>
+      <c r="P70" s="3">
+        <v>7.9182600000000001</v>
+      </c>
       <c r="V70" s="1">
         <v>17</v>
       </c>
@@ -4943,6 +5605,15 @@
       <c r="L71" s="3">
         <v>0.374</v>
       </c>
+      <c r="N71" s="3">
+        <v>1.2036099999999999E-2</v>
+      </c>
+      <c r="O71" s="3">
+        <v>1.02742</v>
+      </c>
+      <c r="P71" s="3">
+        <v>7.7679</v>
+      </c>
       <c r="V71" s="1">
         <v>18</v>
       </c>
@@ -4999,6 +5670,15 @@
       <c r="L72" s="3">
         <v>0.39800000000000002</v>
       </c>
+      <c r="N72" s="3">
+        <v>1.11071E-2</v>
+      </c>
+      <c r="O72" s="3">
+        <v>1.0106900000000001</v>
+      </c>
+      <c r="P72" s="3">
+        <v>7.6501599999999996</v>
+      </c>
       <c r="V72" s="1">
         <v>18</v>
       </c>
@@ -5055,6 +5735,15 @@
       <c r="L73" s="3">
         <v>0.38700000000000001</v>
       </c>
+      <c r="N73" s="3">
+        <v>1.18724E-2</v>
+      </c>
+      <c r="O73" s="3">
+        <v>1.0694900000000001</v>
+      </c>
+      <c r="P73" s="3">
+        <v>7.68466</v>
+      </c>
       <c r="V73" s="1">
         <v>18</v>
       </c>
@@ -5111,6 +5800,15 @@
       <c r="L74" s="3">
         <v>0.38800000000000001</v>
       </c>
+      <c r="N74" s="3">
+        <v>1.1964900000000001E-2</v>
+      </c>
+      <c r="O74" s="3">
+        <v>1.081</v>
+      </c>
+      <c r="P74" s="3">
+        <v>7.57456</v>
+      </c>
       <c r="V74" s="1">
         <v>17</v>
       </c>
@@ -5167,6 +5865,15 @@
       <c r="L75" s="3">
         <v>0.41</v>
       </c>
+      <c r="N75" s="3">
+        <v>1.22246E-2</v>
+      </c>
+      <c r="O75" s="3">
+        <v>1.0121500000000001</v>
+      </c>
+      <c r="P75" s="3">
+        <v>7.4326800000000004</v>
+      </c>
       <c r="V75" s="1">
         <v>18</v>
       </c>
@@ -5223,6 +5930,15 @@
       <c r="L76" s="3">
         <v>0.39600000000000002</v>
       </c>
+      <c r="N76" s="3">
+        <v>1.3538E-2</v>
+      </c>
+      <c r="O76" s="3">
+        <v>1.2433099999999999</v>
+      </c>
+      <c r="P76" s="3">
+        <v>7.5602099999999997</v>
+      </c>
       <c r="V76" s="1">
         <v>18</v>
       </c>
@@ -5279,6 +5995,15 @@
       <c r="L77" s="3">
         <v>0.41699999999999998</v>
       </c>
+      <c r="N77" s="3">
+        <v>1.08001E-2</v>
+      </c>
+      <c r="O77" s="3">
+        <v>1.1600299999999999</v>
+      </c>
+      <c r="P77" s="3">
+        <v>7.5353599999999998</v>
+      </c>
       <c r="V77" s="1">
         <v>17</v>
       </c>
@@ -5335,6 +6060,15 @@
       <c r="L78" s="3">
         <v>0.376</v>
       </c>
+      <c r="N78" s="3">
+        <v>1.1187900000000001E-2</v>
+      </c>
+      <c r="O78" s="3">
+        <v>0.95158200000000004</v>
+      </c>
+      <c r="P78" s="3">
+        <v>7.4731899999999998</v>
+      </c>
       <c r="V78" s="1">
         <v>18</v>
       </c>
@@ -5391,6 +6125,15 @@
       <c r="L79" s="3">
         <v>0.376</v>
       </c>
+      <c r="N79" s="3">
+        <v>1.1966600000000001E-2</v>
+      </c>
+      <c r="O79" s="3">
+        <v>0.97482599999999997</v>
+      </c>
+      <c r="P79" s="3">
+        <v>7.4628100000000002</v>
+      </c>
       <c r="V79" s="1">
         <v>18</v>
       </c>
@@ -5447,6 +6190,15 @@
       <c r="L80" s="3">
         <v>0.39500000000000002</v>
       </c>
+      <c r="N80" s="3">
+        <v>1.1932999999999999E-2</v>
+      </c>
+      <c r="O80" s="3">
+        <v>0.98087800000000003</v>
+      </c>
+      <c r="P80" s="3">
+        <v>7.7067699999999997</v>
+      </c>
       <c r="V80" s="1">
         <v>17</v>
       </c>
@@ -5503,6 +6255,15 @@
       <c r="L81" s="3">
         <v>0.374</v>
       </c>
+      <c r="N81" s="3">
+        <v>1.2148600000000001E-2</v>
+      </c>
+      <c r="O81" s="3">
+        <v>1.0361199999999999</v>
+      </c>
+      <c r="P81" s="3">
+        <v>7.7091200000000004</v>
+      </c>
       <c r="V81" s="1">
         <v>18</v>
       </c>
@@ -5559,6 +6320,15 @@
       <c r="L82" s="3">
         <v>0.38100000000000001</v>
       </c>
+      <c r="N82" s="3">
+        <v>1.05973E-2</v>
+      </c>
+      <c r="O82" s="3">
+        <v>0.94867299999999999</v>
+      </c>
+      <c r="P82" s="3">
+        <v>7.8768900000000004</v>
+      </c>
       <c r="V82" s="1">
         <v>18</v>
       </c>
@@ -5615,6 +6385,15 @@
       <c r="L83" s="3">
         <v>0.377</v>
       </c>
+      <c r="N83" s="3">
+        <v>1.10095E-2</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0.94826500000000002</v>
+      </c>
+      <c r="P83" s="3">
+        <v>7.6810700000000001</v>
+      </c>
       <c r="V83" s="1">
         <v>17</v>
       </c>
@@ -5671,6 +6450,15 @@
       <c r="L84" s="3">
         <v>0.376</v>
       </c>
+      <c r="N84" s="3">
+        <v>1.19291E-2</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0.96689000000000003</v>
+      </c>
+      <c r="P84" s="3">
+        <v>8.7460299999999993</v>
+      </c>
       <c r="V84" s="1">
         <v>18</v>
       </c>
@@ -5727,6 +6515,15 @@
       <c r="L85" s="3">
         <v>0.38500000000000001</v>
       </c>
+      <c r="N85" s="3">
+        <v>1.10121E-2</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0.95312399999999997</v>
+      </c>
+      <c r="P85" s="3">
+        <v>7.8316299999999996</v>
+      </c>
       <c r="V85" s="1">
         <v>18</v>
       </c>
@@ -5783,6 +6580,15 @@
       <c r="L86" s="3">
         <v>0.39700000000000002</v>
       </c>
+      <c r="N86" s="3">
+        <v>1.15958E-2</v>
+      </c>
+      <c r="O86" s="3">
+        <v>1.0251999999999999</v>
+      </c>
+      <c r="P86" s="3">
+        <v>10.4208</v>
+      </c>
       <c r="V86" s="1">
         <v>17</v>
       </c>
@@ -5839,6 +6645,15 @@
       <c r="L87" s="3">
         <v>0.376</v>
       </c>
+      <c r="N87" s="3">
+        <v>1.20374E-2</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0.94234499999999999</v>
+      </c>
+      <c r="P87" s="3">
+        <v>9.1806999999999999</v>
+      </c>
       <c r="V87" s="1">
         <v>18</v>
       </c>
@@ -5895,6 +6710,15 @@
       <c r="L88" s="3">
         <v>0.378</v>
       </c>
+      <c r="N88" s="3">
+        <v>1.1680400000000001E-2</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0.984232</v>
+      </c>
+      <c r="P88" s="3">
+        <v>7.8706899999999997</v>
+      </c>
       <c r="V88" s="1">
         <v>18</v>
       </c>
@@ -5951,6 +6775,15 @@
       <c r="L89" s="3">
         <v>0.42</v>
       </c>
+      <c r="N89" s="3">
+        <v>1.09658E-2</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0.99143899999999996</v>
+      </c>
+      <c r="P89" s="3">
+        <v>8.5579099999999997</v>
+      </c>
       <c r="V89" s="1">
         <v>17</v>
       </c>
@@ -6007,6 +6840,15 @@
       <c r="L90" s="3">
         <v>0.47099999999999997</v>
       </c>
+      <c r="N90" s="3">
+        <v>1.19226E-2</v>
+      </c>
+      <c r="O90" s="3">
+        <v>0.96221299999999998</v>
+      </c>
+      <c r="P90" s="3">
+        <v>17.049499999999998</v>
+      </c>
       <c r="V90" s="1">
         <v>18</v>
       </c>
@@ -6063,6 +6905,15 @@
       <c r="L91" s="3">
         <v>0.55400000000000005</v>
       </c>
+      <c r="N91" s="3">
+        <v>1.09278E-2</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0.99369399999999997</v>
+      </c>
+      <c r="P91" s="3">
+        <v>7.8732899999999999</v>
+      </c>
       <c r="V91" s="1">
         <v>18</v>
       </c>
@@ -6119,6 +6970,15 @@
       <c r="L92" s="3">
         <v>0.49299999999999999</v>
       </c>
+      <c r="N92" s="3">
+        <v>1.09721E-2</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0.952102</v>
+      </c>
+      <c r="P92" s="3">
+        <v>9.9820399999999996</v>
+      </c>
       <c r="V92" s="1">
         <v>17</v>
       </c>
@@ -6175,6 +7035,15 @@
       <c r="L93" s="3">
         <v>0.42099999999999999</v>
       </c>
+      <c r="N93" s="3">
+        <v>1.1684E-2</v>
+      </c>
+      <c r="O93" s="3">
+        <v>1.0056499999999999</v>
+      </c>
+      <c r="P93" s="3">
+        <v>8.5678199999999993</v>
+      </c>
       <c r="V93" s="1">
         <v>18</v>
       </c>
@@ -6231,6 +7100,15 @@
       <c r="L94" s="3">
         <v>0.38500000000000001</v>
       </c>
+      <c r="N94" s="3">
+        <v>1.10659E-2</v>
+      </c>
+      <c r="O94" s="3">
+        <v>1.0259499999999999</v>
+      </c>
+      <c r="P94" s="3">
+        <v>7.6523700000000003</v>
+      </c>
       <c r="V94" s="1">
         <v>18</v>
       </c>
@@ -6287,6 +7165,15 @@
       <c r="L95" s="3">
         <v>0.39100000000000001</v>
       </c>
+      <c r="N95" s="3">
+        <v>1.0317399999999999E-2</v>
+      </c>
+      <c r="O95" s="3">
+        <v>0.98839299999999997</v>
+      </c>
+      <c r="P95" s="3">
+        <v>7.6018600000000003</v>
+      </c>
       <c r="V95" s="1">
         <v>18</v>
       </c>
@@ -6343,6 +7230,15 @@
       <c r="L96" s="3">
         <v>0.39300000000000002</v>
       </c>
+      <c r="N96" s="3">
+        <v>1.09782E-2</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0.96540599999999999</v>
+      </c>
+      <c r="P96" s="3">
+        <v>7.6461699999999997</v>
+      </c>
       <c r="V96" s="1">
         <v>17</v>
       </c>
@@ -6399,6 +7295,15 @@
       <c r="L97" s="3">
         <v>0.39200000000000002</v>
       </c>
+      <c r="N97" s="3">
+        <v>1.0963799999999999E-2</v>
+      </c>
+      <c r="O97" s="3">
+        <v>1.0074399999999999</v>
+      </c>
+      <c r="P97" s="3">
+        <v>7.8698499999999996</v>
+      </c>
       <c r="V97" s="1">
         <v>18</v>
       </c>
@@ -6455,6 +7360,15 @@
       <c r="L98" s="3">
         <v>0.41599999999999998</v>
       </c>
+      <c r="N98" s="3">
+        <v>1.10072E-2</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0.937751</v>
+      </c>
+      <c r="P98" s="3">
+        <v>7.6385399999999999</v>
+      </c>
       <c r="V98" s="1">
         <v>18</v>
       </c>
@@ -6511,6 +7425,15 @@
       <c r="L99" s="3">
         <v>0.375</v>
       </c>
+      <c r="N99" s="3">
+        <v>1.1003600000000001E-2</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0.93672299999999997</v>
+      </c>
+      <c r="P99" s="3">
+        <v>7.7008299999999998</v>
+      </c>
       <c r="V99" s="1">
         <v>17</v>
       </c>
@@ -6567,6 +7490,15 @@
       <c r="L100" s="3">
         <v>0.42299999999999999</v>
       </c>
+      <c r="N100" s="3">
+        <v>1.10098E-2</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0.95377400000000001</v>
+      </c>
+      <c r="P100" s="3">
+        <v>7.5914799999999998</v>
+      </c>
       <c r="V100" s="1">
         <v>18</v>
       </c>
@@ -6623,6 +7555,15 @@
       <c r="L101" s="3">
         <v>0.41699999999999998</v>
       </c>
+      <c r="N101" s="3">
+        <v>1.16285E-2</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0.99459200000000003</v>
+      </c>
+      <c r="P101" s="3">
+        <v>7.9586100000000002</v>
+      </c>
       <c r="V101" s="1">
         <v>18</v>
       </c>
@@ -6679,6 +7620,15 @@
       <c r="L102" s="3">
         <v>0.42199999999999999</v>
       </c>
+      <c r="N102" s="3">
+        <v>1.1805899999999999E-2</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0.966808</v>
+      </c>
+      <c r="P102" s="3">
+        <v>8.1067999999999998</v>
+      </c>
       <c r="V102" s="1">
         <v>18</v>
       </c>
@@ -6735,6 +7685,15 @@
       <c r="L103" s="3">
         <v>0.38900000000000001</v>
       </c>
+      <c r="N103" s="3">
+        <v>1.0585799999999999E-2</v>
+      </c>
+      <c r="O103" s="3">
+        <v>0.96196000000000004</v>
+      </c>
+      <c r="P103" s="3">
+        <v>7.77935</v>
+      </c>
       <c r="V103" s="1">
         <v>17</v>
       </c>
@@ -6791,6 +7750,15 @@
       <c r="L104" s="3">
         <v>0.379</v>
       </c>
+      <c r="N104" s="3">
+        <v>1.25845E-2</v>
+      </c>
+      <c r="O104" s="3">
+        <v>0.94532899999999997</v>
+      </c>
+      <c r="P104" s="3">
+        <v>7.5457900000000002</v>
+      </c>
       <c r="V104" s="1">
         <v>18</v>
       </c>
@@ -6855,11 +7823,20 @@
       <c r="B106" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D106" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="F106" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="N106" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P106" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="V106" s="1">
         <v>17</v>
@@ -6920,6 +7897,15 @@
       <c r="L107" s="2">
         <v>17</v>
       </c>
+      <c r="N107" s="2">
+        <v>10</v>
+      </c>
+      <c r="O107" s="2">
+        <v>15</v>
+      </c>
+      <c r="P107" s="2">
+        <v>17</v>
+      </c>
       <c r="V107" s="1">
         <v>18</v>
       </c>
@@ -6957,36 +7943,47 @@
         <v>3.9400000000000018E-2</v>
       </c>
       <c r="C108" s="3">
-        <f t="shared" ref="C108:L108" si="1">AVERAGE(C109:C208)</f>
+        <f t="shared" ref="C108:L108" si="2">AVERAGE(C109:C208)</f>
         <v>1.7379899999999995</v>
       </c>
       <c r="D108" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.3467499999999966</v>
       </c>
       <c r="F108" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.7803999999999999E-2</v>
       </c>
       <c r="G108" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4246799999999995</v>
       </c>
       <c r="H108" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.9500959999999994</v>
       </c>
       <c r="J108" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.5100000000000071E-3</v>
       </c>
       <c r="K108" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.39474000000000009</v>
       </c>
       <c r="L108" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8569200000000001</v>
+      </c>
+      <c r="N108" s="3">
+        <f t="shared" ref="N108:P108" si="3">AVERAGE(N109:N208)</f>
+        <v>3.5148146000000005E-2</v>
+      </c>
+      <c r="O108" s="3">
+        <v>1.8934</v>
+      </c>
+      <c r="P108" s="3">
+        <f t="shared" si="3"/>
+        <v>10.493780800000001</v>
       </c>
       <c r="V108" s="1">
         <v>18</v>
@@ -7044,6 +8041,15 @@
       <c r="L109" s="3">
         <v>1.8160000000000001</v>
       </c>
+      <c r="N109" s="3">
+        <v>2.9327300000000001E-2</v>
+      </c>
+      <c r="O109" s="3">
+        <v>1.7641899999999999</v>
+      </c>
+      <c r="P109" s="3">
+        <v>7.0484499999999999</v>
+      </c>
       <c r="V109" s="1">
         <v>17</v>
       </c>
@@ -7099,6 +8105,15 @@
       </c>
       <c r="L110" s="3">
         <v>1.7649999999999999</v>
+      </c>
+      <c r="N110" s="3">
+        <v>5.5894100000000002E-2</v>
+      </c>
+      <c r="O110" s="3">
+        <v>1.5420400000000001</v>
+      </c>
+      <c r="P110" s="3">
+        <v>7.1269</v>
       </c>
       <c r="V110" s="1">
         <v>18</v>
@@ -7156,6 +8171,15 @@
       <c r="L111" s="3">
         <v>1.7789999999999999</v>
       </c>
+      <c r="N111" s="3">
+        <v>7.8421299999999999E-2</v>
+      </c>
+      <c r="O111" s="3">
+        <v>1.60484</v>
+      </c>
+      <c r="P111" s="3">
+        <v>7.1024000000000003</v>
+      </c>
       <c r="V111" s="1">
         <v>18</v>
       </c>
@@ -7212,6 +8236,15 @@
       <c r="L112" s="3">
         <v>1.921</v>
       </c>
+      <c r="N112" s="3">
+        <v>3.9896599999999997E-2</v>
+      </c>
+      <c r="O112" s="3">
+        <v>1.4781899999999999</v>
+      </c>
+      <c r="P112" s="3">
+        <v>7.3808699999999998</v>
+      </c>
       <c r="V112" s="1">
         <v>20</v>
       </c>
@@ -7268,6 +8301,15 @@
       <c r="L113" s="3">
         <v>1.786</v>
       </c>
+      <c r="N113" s="3">
+        <v>3.0880999999999999E-2</v>
+      </c>
+      <c r="O113" s="3">
+        <v>1.50627</v>
+      </c>
+      <c r="P113" s="3">
+        <v>7.0661300000000002</v>
+      </c>
       <c r="V113" s="1">
         <v>18</v>
       </c>
@@ -7324,6 +8366,15 @@
       <c r="L114" s="3">
         <v>1.8420000000000001</v>
       </c>
+      <c r="N114" s="3">
+        <v>2.9992700000000001E-2</v>
+      </c>
+      <c r="O114" s="3">
+        <v>1.4600599999999999</v>
+      </c>
+      <c r="P114" s="3">
+        <v>8.6835500000000003</v>
+      </c>
       <c r="V114" s="1">
         <v>17</v>
       </c>
@@ -7380,6 +8431,15 @@
       <c r="L115" s="3">
         <v>1.819</v>
       </c>
+      <c r="N115" s="3">
+        <v>3.0353399999999999E-2</v>
+      </c>
+      <c r="O115" s="3">
+        <v>1.4541299999999999</v>
+      </c>
+      <c r="P115" s="3">
+        <v>8.8996499999999994</v>
+      </c>
       <c r="V115" s="1">
         <v>18</v>
       </c>
@@ -7436,6 +8496,15 @@
       <c r="L116" s="3">
         <v>2.1930000000000001</v>
       </c>
+      <c r="N116" s="3">
+        <v>2.9878700000000001E-2</v>
+      </c>
+      <c r="O116" s="3">
+        <v>1.64981</v>
+      </c>
+      <c r="P116" s="3">
+        <v>12.6572</v>
+      </c>
       <c r="V116" s="1">
         <v>18</v>
       </c>
@@ -7492,6 +8561,15 @@
       <c r="L117" s="3">
         <v>1.91</v>
       </c>
+      <c r="N117" s="3">
+        <v>2.88297E-2</v>
+      </c>
+      <c r="O117" s="3">
+        <v>1.52641</v>
+      </c>
+      <c r="P117" s="3">
+        <v>8.74695</v>
+      </c>
       <c r="V117" s="1">
         <v>18</v>
       </c>
@@ -7548,6 +8626,15 @@
       <c r="L118" s="3">
         <v>1.8480000000000001</v>
       </c>
+      <c r="N118" s="3">
+        <v>2.9924900000000001E-2</v>
+      </c>
+      <c r="O118" s="3">
+        <v>1.5067299999999999</v>
+      </c>
+      <c r="P118" s="3">
+        <v>10.2944</v>
+      </c>
       <c r="V118" s="1">
         <v>17</v>
       </c>
@@ -7604,6 +8691,15 @@
       <c r="L119" s="3">
         <v>1.8939999999999999</v>
       </c>
+      <c r="N119" s="3">
+        <v>2.9005300000000001E-2</v>
+      </c>
+      <c r="O119" s="3">
+        <v>2.75135</v>
+      </c>
+      <c r="P119" s="3">
+        <v>9.0905699999999996</v>
+      </c>
       <c r="V119" s="1">
         <v>18</v>
       </c>
@@ -7660,6 +8756,15 @@
       <c r="L120" s="3">
         <v>1.8240000000000001</v>
       </c>
+      <c r="N120" s="3">
+        <v>3.0063900000000001E-2</v>
+      </c>
+      <c r="O120" s="3">
+        <v>3.29284</v>
+      </c>
+      <c r="P120" s="3">
+        <v>9.5723000000000003</v>
+      </c>
       <c r="V120" s="1">
         <v>18</v>
       </c>
@@ -7715,6 +8820,15 @@
       </c>
       <c r="L121" s="3">
         <v>1.885</v>
+      </c>
+      <c r="N121" s="3">
+        <v>3.0785099999999999E-2</v>
+      </c>
+      <c r="O121" s="3">
+        <v>3.0985200000000002</v>
+      </c>
+      <c r="P121" s="3">
+        <v>10.607699999999999</v>
       </c>
       <c r="V121" s="1">
         <v>18</v>
@@ -7772,6 +8886,15 @@
       <c r="L122" s="3">
         <v>1.823</v>
       </c>
+      <c r="N122" s="3">
+        <v>3.0842600000000001E-2</v>
+      </c>
+      <c r="O122" s="3">
+        <v>3.1480800000000002</v>
+      </c>
+      <c r="P122" s="3">
+        <v>16.344000000000001</v>
+      </c>
       <c r="V122" s="1">
         <v>18</v>
       </c>
@@ -7828,6 +8951,15 @@
       <c r="L123" s="3">
         <v>1.865</v>
       </c>
+      <c r="N123" s="3">
+        <v>2.8883800000000001E-2</v>
+      </c>
+      <c r="O123" s="3">
+        <v>3.1038999999999999</v>
+      </c>
+      <c r="P123" s="3">
+        <v>10.4086</v>
+      </c>
       <c r="V123" s="1">
         <v>17</v>
       </c>
@@ -7884,6 +9016,15 @@
       <c r="L124" s="3">
         <v>1.9159999999999999</v>
       </c>
+      <c r="N124" s="3">
+        <v>2.9049200000000001E-2</v>
+      </c>
+      <c r="O124" s="3">
+        <v>3.0493199999999998</v>
+      </c>
+      <c r="P124" s="3">
+        <v>11.4474</v>
+      </c>
       <c r="V124" s="1">
         <v>18</v>
       </c>
@@ -7940,6 +9081,15 @@
       <c r="L125" s="3">
         <v>1.796</v>
       </c>
+      <c r="N125" s="3">
+        <v>3.0432799999999999E-2</v>
+      </c>
+      <c r="O125" s="3">
+        <v>3.5321099999999999</v>
+      </c>
+      <c r="P125" s="3">
+        <v>12.0167</v>
+      </c>
       <c r="V125" s="1">
         <v>18</v>
       </c>
@@ -7996,6 +9146,15 @@
       <c r="L126" s="3">
         <v>1.784</v>
       </c>
+      <c r="N126" s="3">
+        <v>3.3643300000000001E-2</v>
+      </c>
+      <c r="O126" s="3">
+        <v>3.5349200000000001</v>
+      </c>
+      <c r="P126" s="3">
+        <v>9.8407199999999992</v>
+      </c>
       <c r="V126" s="1">
         <v>17</v>
       </c>
@@ -8052,6 +9211,15 @@
       <c r="L127" s="3">
         <v>1.7989999999999999</v>
       </c>
+      <c r="N127" s="3">
+        <v>2.9384400000000001E-2</v>
+      </c>
+      <c r="O127" s="3">
+        <v>1.8832899999999999</v>
+      </c>
+      <c r="P127" s="3">
+        <v>12.620200000000001</v>
+      </c>
       <c r="V127" s="1">
         <v>18</v>
       </c>
@@ -8108,6 +9276,15 @@
       <c r="L128" s="3">
         <v>1.921</v>
       </c>
+      <c r="N128" s="3">
+        <v>2.9043200000000002E-2</v>
+      </c>
+      <c r="O128" s="3">
+        <v>3.4112200000000001</v>
+      </c>
+      <c r="P128" s="3">
+        <v>14.552199999999999</v>
+      </c>
       <c r="V128" s="1">
         <v>18</v>
       </c>
@@ -8164,6 +9341,15 @@
       <c r="L129" s="3">
         <v>1.895</v>
       </c>
+      <c r="N129" s="3">
+        <v>2.92743E-2</v>
+      </c>
+      <c r="O129" s="3">
+        <v>1.97007</v>
+      </c>
+      <c r="P129" s="3">
+        <v>15.6303</v>
+      </c>
       <c r="V129" s="1">
         <v>18</v>
       </c>
@@ -8219,6 +9405,15 @@
       </c>
       <c r="L130" s="3">
         <v>1.7490000000000001</v>
+      </c>
+      <c r="N130" s="3">
+        <v>3.0831500000000001E-2</v>
+      </c>
+      <c r="O130" s="3">
+        <v>2.0835900000000001</v>
+      </c>
+      <c r="P130" s="3">
+        <v>9.2820099999999996</v>
       </c>
       <c r="V130" s="1">
         <v>17</v>
@@ -8276,6 +9471,15 @@
       <c r="L131" s="3">
         <v>1.7390000000000001</v>
       </c>
+      <c r="N131" s="3">
+        <v>2.9486700000000001E-2</v>
+      </c>
+      <c r="O131" s="3">
+        <v>1.8235699999999999</v>
+      </c>
+      <c r="P131" s="3">
+        <v>9.3556600000000003</v>
+      </c>
       <c r="V131" s="1">
         <v>18</v>
       </c>
@@ -8332,6 +9536,15 @@
       <c r="L132" s="3">
         <v>1.774</v>
       </c>
+      <c r="N132" s="3">
+        <v>3.1566499999999997E-2</v>
+      </c>
+      <c r="O132" s="3">
+        <v>1.5425899999999999</v>
+      </c>
+      <c r="P132" s="3">
+        <v>13.457700000000001</v>
+      </c>
       <c r="V132" s="1">
         <v>18</v>
       </c>
@@ -8388,6 +9601,15 @@
       <c r="L133" s="3">
         <v>1.87</v>
       </c>
+      <c r="N133" s="3">
+        <v>3.0276000000000001E-2</v>
+      </c>
+      <c r="O133" s="3">
+        <v>2.4742799999999998</v>
+      </c>
+      <c r="P133" s="3">
+        <v>9.0478400000000008</v>
+      </c>
       <c r="V133" s="1">
         <v>17</v>
       </c>
@@ -8444,6 +9666,15 @@
       <c r="L134" s="3">
         <v>1.7549999999999999</v>
       </c>
+      <c r="N134" s="3">
+        <v>3.9760999999999998E-2</v>
+      </c>
+      <c r="O134" s="3">
+        <v>1.66398</v>
+      </c>
+      <c r="P134" s="3">
+        <v>10.803900000000001</v>
+      </c>
       <c r="V134" s="1">
         <v>18</v>
       </c>
@@ -8500,6 +9731,15 @@
       <c r="L135" s="3">
         <v>1.7769999999999999</v>
       </c>
+      <c r="N135" s="3">
+        <v>3.1472100000000003E-2</v>
+      </c>
+      <c r="O135" s="3">
+        <v>2.1036800000000002</v>
+      </c>
+      <c r="P135" s="3">
+        <v>9.6659600000000001</v>
+      </c>
       <c r="V135" s="1">
         <v>18</v>
       </c>
@@ -8556,6 +9796,15 @@
       <c r="L136" s="3">
         <v>1.7709999999999999</v>
       </c>
+      <c r="N136" s="3">
+        <v>3.08393E-2</v>
+      </c>
+      <c r="O136" s="3">
+        <v>2.3278799999999999</v>
+      </c>
+      <c r="P136" s="3">
+        <v>10.7913</v>
+      </c>
       <c r="V136" s="1">
         <v>17</v>
       </c>
@@ -8612,6 +9861,15 @@
       <c r="L137" s="3">
         <v>1.76</v>
       </c>
+      <c r="N137" s="3">
+        <v>3.15473E-2</v>
+      </c>
+      <c r="O137" s="3">
+        <v>1.84121</v>
+      </c>
+      <c r="P137" s="3">
+        <v>12.785600000000001</v>
+      </c>
       <c r="V137" s="1">
         <v>18</v>
       </c>
@@ -8668,6 +9926,15 @@
       <c r="L138" s="3">
         <v>1.843</v>
       </c>
+      <c r="N138" s="3">
+        <v>3.0142100000000002E-2</v>
+      </c>
+      <c r="O138" s="3">
+        <v>1.6989099999999999</v>
+      </c>
+      <c r="P138" s="3">
+        <v>10.5083</v>
+      </c>
       <c r="V138" s="1">
         <v>18</v>
       </c>
@@ -8724,6 +9991,15 @@
       <c r="L139" s="3">
         <v>1.8160000000000001</v>
       </c>
+      <c r="N139" s="3">
+        <v>3.1436800000000001E-2</v>
+      </c>
+      <c r="O139" s="3">
+        <v>1.5802400000000001</v>
+      </c>
+      <c r="P139" s="3">
+        <v>10.8414</v>
+      </c>
       <c r="V139" s="1">
         <v>18</v>
       </c>
@@ -8780,6 +10056,15 @@
       <c r="L140" s="3">
         <v>1.784</v>
       </c>
+      <c r="N140" s="3">
+        <v>3.2122999999999999E-2</v>
+      </c>
+      <c r="O140" s="3">
+        <v>1.87432</v>
+      </c>
+      <c r="P140" s="3">
+        <v>10.582100000000001</v>
+      </c>
       <c r="V140" s="1">
         <v>17</v>
       </c>
@@ -8836,6 +10121,15 @@
       <c r="L141" s="3">
         <v>1.7689999999999999</v>
       </c>
+      <c r="N141" s="3">
+        <v>4.0319500000000001E-2</v>
+      </c>
+      <c r="O141" s="3">
+        <v>1.54297</v>
+      </c>
+      <c r="P141" s="3">
+        <v>10.683</v>
+      </c>
       <c r="V141" s="1">
         <v>18</v>
       </c>
@@ -8892,6 +10186,15 @@
       <c r="L142" s="3">
         <v>1.754</v>
       </c>
+      <c r="N142" s="3">
+        <v>3.0624700000000001E-2</v>
+      </c>
+      <c r="O142" s="3">
+        <v>1.76393</v>
+      </c>
+      <c r="P142" s="3">
+        <v>7.0484499999999999</v>
+      </c>
       <c r="V142" s="1">
         <v>18</v>
       </c>
@@ -8948,6 +10251,15 @@
       <c r="L143" s="3">
         <v>1.7869999999999999</v>
       </c>
+      <c r="N143" s="3">
+        <v>3.01593E-2</v>
+      </c>
+      <c r="O143" s="3">
+        <v>1.76423</v>
+      </c>
+      <c r="P143" s="3">
+        <v>7.1269</v>
+      </c>
       <c r="V143" s="1">
         <v>17</v>
       </c>
@@ -9004,6 +10316,15 @@
       <c r="L144" s="3">
         <v>1.9350000000000001</v>
       </c>
+      <c r="N144" s="3">
+        <v>2.8713200000000001E-2</v>
+      </c>
+      <c r="O144" s="3">
+        <v>1.5991299999999999</v>
+      </c>
+      <c r="P144" s="3">
+        <v>7.1024000000000003</v>
+      </c>
       <c r="V144" s="1">
         <v>18</v>
       </c>
@@ -9059,6 +10380,15 @@
       </c>
       <c r="L145" s="3">
         <v>1.861</v>
+      </c>
+      <c r="N145" s="3">
+        <v>2.9639700000000001E-2</v>
+      </c>
+      <c r="O145" s="3">
+        <v>2.5879099999999999</v>
+      </c>
+      <c r="P145" s="3">
+        <v>7.3808699999999998</v>
       </c>
       <c r="V145" s="1">
         <v>18</v>
@@ -9116,6 +10446,15 @@
       <c r="L146" s="3">
         <v>1.847</v>
       </c>
+      <c r="N146" s="3">
+        <v>3.1065700000000002E-2</v>
+      </c>
+      <c r="O146" s="3">
+        <v>1.6528700000000001</v>
+      </c>
+      <c r="P146" s="3">
+        <v>7.0661300000000002</v>
+      </c>
       <c r="V146" s="1">
         <v>17</v>
       </c>
@@ -9172,6 +10511,15 @@
       <c r="L147" s="3">
         <v>1.79</v>
       </c>
+      <c r="N147" s="3">
+        <v>3.2245700000000002E-2</v>
+      </c>
+      <c r="O147" s="3">
+        <v>1.71604</v>
+      </c>
+      <c r="P147" s="3">
+        <v>8.6835500000000003</v>
+      </c>
       <c r="V147" s="1">
         <v>18</v>
       </c>
@@ -9228,6 +10576,15 @@
       <c r="L148" s="3">
         <v>1.7350000000000001</v>
       </c>
+      <c r="N148" s="3">
+        <v>2.9541000000000001E-2</v>
+      </c>
+      <c r="O148" s="3">
+        <v>1.9723999999999999</v>
+      </c>
+      <c r="P148" s="3">
+        <v>8.8996499999999994</v>
+      </c>
       <c r="V148" s="1">
         <v>18</v>
       </c>
@@ -9284,6 +10641,15 @@
       <c r="L149" s="3">
         <v>2.0419999999999998</v>
       </c>
+      <c r="N149" s="3">
+        <v>3.0857800000000001E-2</v>
+      </c>
+      <c r="O149" s="3">
+        <v>1.9573799999999999</v>
+      </c>
+      <c r="P149" s="3">
+        <v>12.6572</v>
+      </c>
       <c r="V149" s="1">
         <v>17</v>
       </c>
@@ -9340,6 +10706,15 @@
       <c r="L150" s="3">
         <v>1.8169999999999999</v>
       </c>
+      <c r="N150" s="3">
+        <v>4.9720899999999998E-2</v>
+      </c>
+      <c r="O150" s="3">
+        <v>1.8869</v>
+      </c>
+      <c r="P150" s="3">
+        <v>8.74695</v>
+      </c>
       <c r="V150" s="1">
         <v>18</v>
       </c>
@@ -9396,6 +10771,15 @@
       <c r="L151" s="3">
         <v>1.772</v>
       </c>
+      <c r="N151" s="3">
+        <v>9.0879299999999996E-2</v>
+      </c>
+      <c r="O151" s="3">
+        <v>1.88039</v>
+      </c>
+      <c r="P151" s="3">
+        <v>10.2944</v>
+      </c>
       <c r="V151" s="1">
         <v>18</v>
       </c>
@@ -9452,6 +10836,15 @@
       <c r="L152" s="3">
         <v>1.7789999999999999</v>
       </c>
+      <c r="N152" s="3">
+        <v>4.5479800000000001E-2</v>
+      </c>
+      <c r="O152" s="3">
+        <v>2.0717599999999998</v>
+      </c>
+      <c r="P152" s="3">
+        <v>9.0905699999999996</v>
+      </c>
       <c r="V152" s="1">
         <v>17</v>
       </c>
@@ -9508,6 +10901,15 @@
       <c r="L153" s="3">
         <v>1.764</v>
       </c>
+      <c r="N153" s="3">
+        <v>4.31075E-2</v>
+      </c>
+      <c r="O153" s="3">
+        <v>1.67195</v>
+      </c>
+      <c r="P153" s="3">
+        <v>9.5723000000000003</v>
+      </c>
       <c r="V153" s="1">
         <v>18</v>
       </c>
@@ -9564,6 +10966,15 @@
       <c r="L154" s="3">
         <v>1.748</v>
       </c>
+      <c r="N154" s="3">
+        <v>4.7243399999999998E-2</v>
+      </c>
+      <c r="O154" s="3">
+        <v>1.63768</v>
+      </c>
+      <c r="P154" s="3">
+        <v>10.607699999999999</v>
+      </c>
       <c r="V154" s="1">
         <v>18</v>
       </c>
@@ -9620,6 +11031,15 @@
       <c r="L155" s="3">
         <v>1.7470000000000001</v>
       </c>
+      <c r="N155" s="3">
+        <v>3.4444900000000001E-2</v>
+      </c>
+      <c r="O155" s="3">
+        <v>1.51553</v>
+      </c>
+      <c r="P155" s="3">
+        <v>16.344000000000001</v>
+      </c>
       <c r="V155" s="1">
         <v>18</v>
       </c>
@@ -9676,6 +11096,15 @@
       <c r="L156" s="3">
         <v>1.766</v>
       </c>
+      <c r="N156" s="3">
+        <v>3.2580600000000001E-2</v>
+      </c>
+      <c r="O156" s="3">
+        <v>1.74844</v>
+      </c>
+      <c r="P156" s="3">
+        <v>10.4086</v>
+      </c>
       <c r="V156" s="1">
         <v>17</v>
       </c>
@@ -9732,6 +11161,15 @@
       <c r="L157" s="3">
         <v>1.8089999999999999</v>
       </c>
+      <c r="N157" s="3">
+        <v>3.5390400000000002E-2</v>
+      </c>
+      <c r="O157" s="3">
+        <v>1.76657</v>
+      </c>
+      <c r="P157" s="3">
+        <v>11.4474</v>
+      </c>
       <c r="V157" s="1">
         <v>18</v>
       </c>
@@ -9788,6 +11226,15 @@
       <c r="L158" s="3">
         <v>1.758</v>
       </c>
+      <c r="N158" s="3">
+        <v>3.6124400000000001E-2</v>
+      </c>
+      <c r="O158" s="3">
+        <v>2.7585600000000001</v>
+      </c>
+      <c r="P158" s="3">
+        <v>12.0167</v>
+      </c>
       <c r="V158" s="1">
         <v>18</v>
       </c>
@@ -9844,6 +11291,15 @@
       <c r="L159" s="3">
         <v>1.7809999999999999</v>
       </c>
+      <c r="N159" s="3">
+        <v>3.07681E-2</v>
+      </c>
+      <c r="O159" s="3">
+        <v>2.0350999999999999</v>
+      </c>
+      <c r="P159" s="3">
+        <v>9.8407199999999992</v>
+      </c>
       <c r="V159" s="1">
         <v>17</v>
       </c>
@@ -9900,6 +11356,15 @@
       <c r="L160" s="3">
         <v>1.825</v>
       </c>
+      <c r="N160" s="3">
+        <v>3.2153500000000002E-2</v>
+      </c>
+      <c r="O160" s="3">
+        <v>1.7643500000000001</v>
+      </c>
+      <c r="P160" s="3">
+        <v>12.620200000000001</v>
+      </c>
       <c r="V160" s="1">
         <v>18</v>
       </c>
@@ -9956,6 +11421,15 @@
       <c r="L161" s="3">
         <v>2.1019999999999999</v>
       </c>
+      <c r="N161" s="3">
+        <v>3.2148299999999998E-2</v>
+      </c>
+      <c r="O161" s="3">
+        <v>1.5041899999999999</v>
+      </c>
+      <c r="P161" s="3">
+        <v>14.552199999999999</v>
+      </c>
       <c r="V161" s="1">
         <v>18</v>
       </c>
@@ -10012,6 +11486,15 @@
       <c r="L162" s="3">
         <v>1.7709999999999999</v>
       </c>
+      <c r="N162" s="3">
+        <v>3.81523E-2</v>
+      </c>
+      <c r="O162" s="3">
+        <v>1.5259100000000001</v>
+      </c>
+      <c r="P162" s="3">
+        <v>15.6303</v>
+      </c>
       <c r="V162" s="1">
         <v>17</v>
       </c>
@@ -10068,6 +11551,15 @@
       <c r="L163" s="3">
         <v>1.77</v>
       </c>
+      <c r="N163" s="3">
+        <v>3.3917599999999999E-2</v>
+      </c>
+      <c r="O163" s="3">
+        <v>1.83734</v>
+      </c>
+      <c r="P163" s="3">
+        <v>9.2820099999999996</v>
+      </c>
       <c r="V163" s="1">
         <v>18</v>
       </c>
@@ -10123,6 +11615,15 @@
       </c>
       <c r="L164" s="3">
         <v>1.792</v>
+      </c>
+      <c r="N164" s="3">
+        <v>4.31297E-2</v>
+      </c>
+      <c r="O164" s="3">
+        <v>1.7114100000000001</v>
+      </c>
+      <c r="P164" s="3">
+        <v>9.3556600000000003</v>
       </c>
       <c r="V164" s="1">
         <v>18</v>
@@ -10180,6 +11681,15 @@
       <c r="L165" s="3">
         <v>1.7709999999999999</v>
       </c>
+      <c r="N165" s="3">
+        <v>3.5968699999999999E-2</v>
+      </c>
+      <c r="O165" s="3">
+        <v>1.75569</v>
+      </c>
+      <c r="P165" s="3">
+        <v>13.457700000000001</v>
+      </c>
       <c r="V165" s="1">
         <v>17</v>
       </c>
@@ -10236,6 +11746,15 @@
       <c r="L166" s="3">
         <v>1.855</v>
       </c>
+      <c r="N166" s="3">
+        <v>3.2342500000000003E-2</v>
+      </c>
+      <c r="O166" s="3">
+        <v>1.9857199999999999</v>
+      </c>
+      <c r="P166" s="3">
+        <v>9.0478400000000008</v>
+      </c>
       <c r="V166" s="1">
         <v>18</v>
       </c>
@@ -10292,6 +11811,15 @@
       <c r="L167" s="3">
         <v>1.7949999999999999</v>
       </c>
+      <c r="N167" s="3">
+        <v>3.52115E-2</v>
+      </c>
+      <c r="O167" s="3">
+        <v>1.5536099999999999</v>
+      </c>
+      <c r="P167" s="3">
+        <v>10.803900000000001</v>
+      </c>
       <c r="V167" s="1">
         <v>18</v>
       </c>
@@ -10348,6 +11876,15 @@
       <c r="L168" s="3">
         <v>1.794</v>
       </c>
+      <c r="N168" s="3">
+        <v>3.5491399999999999E-2</v>
+      </c>
+      <c r="O168" s="3">
+        <v>1.79969</v>
+      </c>
+      <c r="P168" s="3">
+        <v>9.6659600000000001</v>
+      </c>
       <c r="V168" s="1">
         <v>57</v>
       </c>
@@ -10404,6 +11941,15 @@
       <c r="L169" s="3">
         <v>1.9019999999999999</v>
       </c>
+      <c r="N169" s="3">
+        <v>3.3911900000000002E-2</v>
+      </c>
+      <c r="O169" s="3">
+        <v>1.7324600000000001</v>
+      </c>
+      <c r="P169" s="3">
+        <v>10.7913</v>
+      </c>
       <c r="V169" s="1">
         <v>26</v>
       </c>
@@ -10460,6 +12006,15 @@
       <c r="L170" s="3">
         <v>1.8029999999999999</v>
       </c>
+      <c r="N170" s="3">
+        <v>3.4462100000000002E-2</v>
+      </c>
+      <c r="O170" s="3">
+        <v>1.57473</v>
+      </c>
+      <c r="P170" s="3">
+        <v>12.785600000000001</v>
+      </c>
       <c r="V170" s="1">
         <v>18</v>
       </c>
@@ -10516,6 +12071,15 @@
       <c r="L171" s="3">
         <v>1.7529999999999999</v>
       </c>
+      <c r="N171" s="3">
+        <v>3.5356699999999998E-2</v>
+      </c>
+      <c r="O171" s="3">
+        <v>1.5261800000000001</v>
+      </c>
+      <c r="P171" s="3">
+        <v>10.5083</v>
+      </c>
       <c r="V171" s="1">
         <v>18</v>
       </c>
@@ -10572,6 +12136,15 @@
       <c r="L172" s="3">
         <v>1.83</v>
       </c>
+      <c r="N172" s="3">
+        <v>3.1593000000000003E-2</v>
+      </c>
+      <c r="O172" s="3">
+        <v>2.56013</v>
+      </c>
+      <c r="P172" s="3">
+        <v>10.8414</v>
+      </c>
       <c r="V172" s="1">
         <v>17</v>
       </c>
@@ -10628,6 +12201,15 @@
       <c r="L173" s="3">
         <v>1.82</v>
       </c>
+      <c r="N173" s="3">
+        <v>3.26462E-2</v>
+      </c>
+      <c r="O173" s="3">
+        <v>2.9226299999999998</v>
+      </c>
+      <c r="P173" s="3">
+        <v>10.582100000000001</v>
+      </c>
       <c r="V173" s="1">
         <v>18</v>
       </c>
@@ -10684,6 +12266,15 @@
       <c r="L174" s="3">
         <v>1.8080000000000001</v>
       </c>
+      <c r="N174" s="3">
+        <v>3.6957999999999998E-2</v>
+      </c>
+      <c r="O174" s="3">
+        <v>1.75657</v>
+      </c>
+      <c r="P174" s="3">
+        <v>10.683</v>
+      </c>
       <c r="V174" s="1">
         <v>18</v>
       </c>
@@ -10740,6 +12331,15 @@
       <c r="L175" s="3">
         <v>1.7749999999999999</v>
       </c>
+      <c r="N175" s="3">
+        <v>4.0076899999999999E-2</v>
+      </c>
+      <c r="O175" s="3">
+        <v>1.9494</v>
+      </c>
+      <c r="P175" s="3">
+        <v>7.0484499999999999</v>
+      </c>
       <c r="V175" s="1">
         <v>18</v>
       </c>
@@ -10796,6 +12396,15 @@
       <c r="L176" s="3">
         <v>1.82</v>
       </c>
+      <c r="N176" s="3">
+        <v>3.4056700000000002E-2</v>
+      </c>
+      <c r="O176" s="3">
+        <v>1.7504</v>
+      </c>
+      <c r="P176" s="3">
+        <v>7.1269</v>
+      </c>
       <c r="V176" s="1">
         <v>17</v>
       </c>
@@ -10851,6 +12460,15 @@
       </c>
       <c r="L177" s="3">
         <v>1.7689999999999999</v>
+      </c>
+      <c r="N177" s="3">
+        <v>3.6883699999999998E-2</v>
+      </c>
+      <c r="O177" s="3">
+        <v>2.0184500000000001</v>
+      </c>
+      <c r="P177" s="3">
+        <v>7.1024000000000003</v>
       </c>
       <c r="V177" s="1">
         <v>17</v>
@@ -10908,6 +12526,15 @@
       <c r="L178" s="3">
         <v>1.748</v>
       </c>
+      <c r="N178" s="3">
+        <v>3.6334199999999997E-2</v>
+      </c>
+      <c r="O178" s="3">
+        <v>1.9840899999999999</v>
+      </c>
+      <c r="P178" s="3">
+        <v>7.3808699999999998</v>
+      </c>
       <c r="V178" s="1">
         <v>18</v>
       </c>
@@ -10964,6 +12591,15 @@
       <c r="L179" s="3">
         <v>1.8280000000000001</v>
       </c>
+      <c r="N179" s="3">
+        <v>3.2769399999999997E-2</v>
+      </c>
+      <c r="O179" s="3">
+        <v>1.7291700000000001</v>
+      </c>
+      <c r="P179" s="3">
+        <v>7.0661300000000002</v>
+      </c>
       <c r="V179" s="1">
         <v>18</v>
       </c>
@@ -11020,6 +12656,15 @@
       <c r="L180" s="3">
         <v>1.7849999999999999</v>
       </c>
+      <c r="N180" s="3">
+        <v>2.9933999999999999E-2</v>
+      </c>
+      <c r="O180" s="3">
+        <v>1.48916</v>
+      </c>
+      <c r="P180" s="3">
+        <v>8.6835500000000003</v>
+      </c>
       <c r="V180" s="1">
         <v>18</v>
       </c>
@@ -11076,6 +12721,15 @@
       <c r="L181" s="3">
         <v>2.0350000000000001</v>
       </c>
+      <c r="N181" s="3">
+        <v>3.9412000000000003E-2</v>
+      </c>
+      <c r="O181" s="3">
+        <v>1.8030200000000001</v>
+      </c>
+      <c r="P181" s="3">
+        <v>8.8996499999999994</v>
+      </c>
       <c r="V181" s="1">
         <v>17</v>
       </c>
@@ -11132,6 +12786,15 @@
       <c r="L182" s="3">
         <v>1.99</v>
       </c>
+      <c r="N182" s="3">
+        <v>4.1655499999999998E-2</v>
+      </c>
+      <c r="O182" s="3">
+        <v>2.1858900000000001</v>
+      </c>
+      <c r="P182" s="3">
+        <v>12.6572</v>
+      </c>
       <c r="V182" s="1">
         <v>18</v>
       </c>
@@ -11188,6 +12851,15 @@
       <c r="L183" s="3">
         <v>2.012</v>
       </c>
+      <c r="N183" s="3">
+        <v>3.4172300000000003E-2</v>
+      </c>
+      <c r="O183" s="3">
+        <v>2.1646200000000002</v>
+      </c>
+      <c r="P183" s="3">
+        <v>8.74695</v>
+      </c>
       <c r="V183" s="1">
         <v>18</v>
       </c>
@@ -11244,6 +12916,15 @@
       <c r="L184" s="3">
         <v>1.877</v>
       </c>
+      <c r="N184" s="3">
+        <v>3.1642499999999997E-2</v>
+      </c>
+      <c r="O184" s="3">
+        <v>1.60839</v>
+      </c>
+      <c r="P184" s="3">
+        <v>10.2944</v>
+      </c>
       <c r="V184" s="1">
         <v>18</v>
       </c>
@@ -11300,6 +12981,15 @@
       <c r="L185" s="3">
         <v>1.85</v>
       </c>
+      <c r="N185" s="3">
+        <v>3.3865800000000001E-2</v>
+      </c>
+      <c r="O185" s="3">
+        <v>1.8478300000000001</v>
+      </c>
+      <c r="P185" s="3">
+        <v>9.0905699999999996</v>
+      </c>
       <c r="V185" s="1">
         <v>17</v>
       </c>
@@ -11356,6 +13046,15 @@
       <c r="L186" s="3">
         <v>2.04</v>
       </c>
+      <c r="N186" s="3">
+        <v>3.2058299999999998E-2</v>
+      </c>
+      <c r="O186" s="3">
+        <v>1.8007599999999999</v>
+      </c>
+      <c r="P186" s="3">
+        <v>9.5723000000000003</v>
+      </c>
       <c r="V186" s="1">
         <v>18</v>
       </c>
@@ -11412,6 +13111,15 @@
       <c r="L187" s="3">
         <v>2.4529999999999998</v>
       </c>
+      <c r="N187" s="3">
+        <v>3.5081399999999999E-2</v>
+      </c>
+      <c r="O187" s="3">
+        <v>2.0973000000000002</v>
+      </c>
+      <c r="P187" s="3">
+        <v>10.607699999999999</v>
+      </c>
       <c r="V187" s="1">
         <v>18</v>
       </c>
@@ -11468,6 +13176,15 @@
       <c r="L188" s="3">
         <v>2.0470000000000002</v>
       </c>
+      <c r="N188" s="3">
+        <v>3.5359300000000003E-2</v>
+      </c>
+      <c r="O188" s="3">
+        <v>1.62443</v>
+      </c>
+      <c r="P188" s="3">
+        <v>16.344000000000001</v>
+      </c>
       <c r="V188" s="1">
         <v>17</v>
       </c>
@@ -11524,6 +13241,15 @@
       <c r="L189" s="3">
         <v>3.3639999999999999</v>
       </c>
+      <c r="N189" s="3">
+        <v>3.2760699999999997E-2</v>
+      </c>
+      <c r="O189" s="3">
+        <v>1.5771500000000001</v>
+      </c>
+      <c r="P189" s="3">
+        <v>10.4086</v>
+      </c>
       <c r="V189" s="1">
         <v>18</v>
       </c>
@@ -11580,6 +13306,15 @@
       <c r="L190" s="3">
         <v>1.7889999999999999</v>
       </c>
+      <c r="N190" s="3">
+        <v>3.4885899999999997E-2</v>
+      </c>
+      <c r="O190" s="3">
+        <v>1.8452</v>
+      </c>
+      <c r="P190" s="3">
+        <v>11.4474</v>
+      </c>
       <c r="V190" s="1">
         <v>18</v>
       </c>
@@ -11636,6 +13371,15 @@
       <c r="L191" s="3">
         <v>1.8120000000000001</v>
       </c>
+      <c r="N191" s="3">
+        <v>3.4771000000000003E-2</v>
+      </c>
+      <c r="O191" s="3">
+        <v>1.8078099999999999</v>
+      </c>
+      <c r="P191" s="3">
+        <v>12.0167</v>
+      </c>
       <c r="V191" s="1">
         <v>17</v>
       </c>
@@ -11692,6 +13436,15 @@
       <c r="L192" s="3">
         <v>1.772</v>
       </c>
+      <c r="N192" s="3">
+        <v>3.2011299999999999E-2</v>
+      </c>
+      <c r="O192" s="3">
+        <v>1.81379</v>
+      </c>
+      <c r="P192" s="3">
+        <v>9.8407199999999992</v>
+      </c>
       <c r="V192" s="1">
         <v>18</v>
       </c>
@@ -11748,6 +13501,15 @@
       <c r="L193" s="3">
         <v>1.762</v>
       </c>
+      <c r="N193" s="3">
+        <v>3.3463100000000003E-2</v>
+      </c>
+      <c r="O193" s="3">
+        <v>1.83328</v>
+      </c>
+      <c r="P193" s="3">
+        <v>12.620200000000001</v>
+      </c>
       <c r="V193" s="1">
         <v>18</v>
       </c>
@@ -11804,6 +13566,15 @@
       <c r="L194" s="3">
         <v>1.964</v>
       </c>
+      <c r="N194" s="3">
+        <v>3.4110799999999997E-2</v>
+      </c>
+      <c r="O194" s="3">
+        <v>1.60408</v>
+      </c>
+      <c r="P194" s="3">
+        <v>14.552199999999999</v>
+      </c>
       <c r="V194" s="1">
         <v>17</v>
       </c>
@@ -11860,6 +13631,15 @@
       <c r="L195" s="3">
         <v>1.931</v>
       </c>
+      <c r="N195" s="3">
+        <v>3.2906400000000002E-2</v>
+      </c>
+      <c r="O195" s="3">
+        <v>1.93327</v>
+      </c>
+      <c r="P195" s="3">
+        <v>15.6303</v>
+      </c>
       <c r="V195" s="1">
         <v>18</v>
       </c>
@@ -11916,6 +13696,15 @@
       <c r="L196" s="3">
         <v>1.8360000000000001</v>
       </c>
+      <c r="N196" s="3">
+        <v>3.3933400000000002E-2</v>
+      </c>
+      <c r="O196" s="3">
+        <v>1.97698</v>
+      </c>
+      <c r="P196" s="3">
+        <v>9.2820099999999996</v>
+      </c>
       <c r="V196" s="1">
         <v>18</v>
       </c>
@@ -11972,6 +13761,15 @@
       <c r="L197" s="3">
         <v>1.75</v>
       </c>
+      <c r="N197" s="3">
+        <v>3.11741E-2</v>
+      </c>
+      <c r="O197" s="3">
+        <v>1.5804</v>
+      </c>
+      <c r="P197" s="3">
+        <v>9.3556600000000003</v>
+      </c>
       <c r="V197" s="1">
         <v>18</v>
       </c>
@@ -12028,6 +13826,15 @@
       <c r="L198" s="3">
         <v>1.8080000000000001</v>
       </c>
+      <c r="N198" s="3">
+        <v>3.5969300000000003E-2</v>
+      </c>
+      <c r="O198" s="3">
+        <v>2.4198400000000002</v>
+      </c>
+      <c r="P198" s="3">
+        <v>13.457700000000001</v>
+      </c>
       <c r="V198" s="1">
         <v>17</v>
       </c>
@@ -12084,6 +13891,15 @@
       <c r="L199" s="3">
         <v>1.754</v>
       </c>
+      <c r="N199" s="3">
+        <v>3.64371E-2</v>
+      </c>
+      <c r="O199" s="3">
+        <v>2.7577799999999999</v>
+      </c>
+      <c r="P199" s="3">
+        <v>9.0478400000000008</v>
+      </c>
       <c r="V199" s="1">
         <v>18</v>
       </c>
@@ -12139,6 +13955,15 @@
       </c>
       <c r="L200" s="3">
         <v>1.8440000000000001</v>
+      </c>
+      <c r="N200" s="3">
+        <v>3.53669E-2</v>
+      </c>
+      <c r="O200" s="3">
+        <v>5.0676300000000003</v>
+      </c>
+      <c r="P200" s="3">
+        <v>10.803900000000001</v>
       </c>
       <c r="V200" s="1">
         <v>18</v>
@@ -12196,6 +14021,15 @@
       <c r="L201" s="3">
         <v>1.804</v>
       </c>
+      <c r="N201" s="3">
+        <v>4.0239200000000003E-2</v>
+      </c>
+      <c r="O201" s="3">
+        <v>5.4473099999999999</v>
+      </c>
+      <c r="P201" s="3">
+        <v>9.6659600000000001</v>
+      </c>
       <c r="V201" s="1">
         <v>17</v>
       </c>
@@ -12252,6 +14086,15 @@
       <c r="L202" s="3">
         <v>1.8069999999999999</v>
       </c>
+      <c r="N202" s="3">
+        <v>4.4184399999999999E-2</v>
+      </c>
+      <c r="O202" s="3">
+        <v>3.5208699999999999</v>
+      </c>
+      <c r="P202" s="3">
+        <v>10.7913</v>
+      </c>
       <c r="V202" s="1">
         <v>18</v>
       </c>
@@ -12308,6 +14151,15 @@
       <c r="L203" s="3">
         <v>1.847</v>
       </c>
+      <c r="N203" s="3">
+        <v>5.3677500000000003E-2</v>
+      </c>
+      <c r="O203" s="3">
+        <v>1.6600999999999999</v>
+      </c>
+      <c r="P203" s="3">
+        <v>12.785600000000001</v>
+      </c>
       <c r="V203" s="1">
         <v>18</v>
       </c>
@@ -12363,6 +14215,15 @@
       </c>
       <c r="L204" s="3">
         <v>1.9710000000000001</v>
+      </c>
+      <c r="N204" s="3">
+        <v>3.9376899999999999E-2</v>
+      </c>
+      <c r="O204" s="3">
+        <v>1.9837499999999999</v>
+      </c>
+      <c r="P204" s="3">
+        <v>10.5083</v>
       </c>
       <c r="V204" s="1">
         <v>17</v>
@@ -12420,6 +14281,15 @@
       <c r="L205" s="3">
         <v>2</v>
       </c>
+      <c r="N205" s="3">
+        <v>2.9821500000000001E-2</v>
+      </c>
+      <c r="O205" s="3">
+        <v>1.64236</v>
+      </c>
+      <c r="P205" s="3">
+        <v>10.8414</v>
+      </c>
       <c r="V205" s="1">
         <v>18</v>
       </c>
@@ -12476,6 +14346,15 @@
       <c r="L206" s="3">
         <v>1.843</v>
       </c>
+      <c r="N206" s="3">
+        <v>3.0729800000000002E-2</v>
+      </c>
+      <c r="O206" s="3">
+        <v>1.92604</v>
+      </c>
+      <c r="P206" s="3">
+        <v>10.582100000000001</v>
+      </c>
       <c r="V206" s="1">
         <v>18</v>
       </c>
@@ -12532,6 +14411,15 @@
       <c r="L207" s="3">
         <v>1.7869999999999999</v>
       </c>
+      <c r="N207" s="3">
+        <v>3.0572599999999998E-2</v>
+      </c>
+      <c r="O207" s="3">
+        <v>2.2872499999999998</v>
+      </c>
+      <c r="P207" s="3">
+        <v>10.683</v>
+      </c>
       <c r="V207" s="1">
         <v>18</v>
       </c>
@@ -12588,6 +14476,15 @@
       <c r="L208" s="3">
         <v>1.847</v>
       </c>
+      <c r="N208" s="3">
+        <v>2.9481500000000001E-2</v>
+      </c>
+      <c r="O208" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="P208" s="3">
+        <v>14.552199999999999</v>
+      </c>
       <c r="V208" s="1">
         <v>18</v>
       </c>
@@ -12658,6 +14555,9 @@
       <c r="J210" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="N210" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="V210" s="1">
         <v>18</v>
       </c>
@@ -12717,6 +14617,15 @@
       <c r="L211" s="2">
         <v>20</v>
       </c>
+      <c r="N211" s="2">
+        <v>1</v>
+      </c>
+      <c r="O211" s="2">
+        <v>10</v>
+      </c>
+      <c r="P211" s="2">
+        <v>20</v>
+      </c>
       <c r="V211" s="1">
         <v>18</v>
       </c>
@@ -12778,11 +14687,23 @@
         <v>2.777000000000001E-2</v>
       </c>
       <c r="K212" s="3">
-        <f t="shared" ref="K212:L212" si="2">AVERAGE(K213:K312)</f>
+        <f t="shared" ref="K212:L212" si="4">AVERAGE(K213:K312)</f>
         <v>0.30101999999999984</v>
       </c>
       <c r="L212" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
+        <v>0.60486000000000029</v>
+      </c>
+      <c r="N212" s="3">
+        <f>AVERAGE(N213:N312)</f>
+        <v>2.777000000000001E-2</v>
+      </c>
+      <c r="O212" s="3">
+        <f t="shared" ref="O212:P212" si="5">AVERAGE(O213:O312)</f>
+        <v>0.30101999999999984</v>
+      </c>
+      <c r="P212" s="3">
+        <f t="shared" si="5"/>
         <v>0.60486000000000029</v>
       </c>
       <c r="V212" s="1">
@@ -12841,6 +14762,15 @@
       <c r="L213" s="3">
         <v>0.60899999999999999</v>
       </c>
+      <c r="N213" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O213" s="3">
+        <v>0.27</v>
+      </c>
+      <c r="P213" s="3">
+        <v>0.60899999999999999</v>
+      </c>
       <c r="V213" s="1">
         <v>17</v>
       </c>
@@ -12897,6 +14827,15 @@
       <c r="L214" s="3">
         <v>0.625</v>
       </c>
+      <c r="N214" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O214" s="3">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="P214" s="3">
+        <v>0.625</v>
+      </c>
       <c r="V214" s="1">
         <v>17</v>
       </c>
@@ -12953,6 +14892,15 @@
       <c r="L215" s="3">
         <v>0.58299999999999996</v>
       </c>
+      <c r="N215" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="O215" s="3">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="P215" s="3">
+        <v>0.58299999999999996</v>
+      </c>
       <c r="V215" s="1">
         <v>18</v>
       </c>
@@ -13009,6 +14957,15 @@
       <c r="L216" s="3">
         <v>0.61899999999999999</v>
       </c>
+      <c r="N216" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O216" s="3">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="P216" s="3">
+        <v>0.61899999999999999</v>
+      </c>
       <c r="V216" s="1">
         <v>18</v>
       </c>
@@ -13065,6 +15022,15 @@
       <c r="L217" s="3">
         <v>0.59099999999999997</v>
       </c>
+      <c r="N217" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="O217" s="3">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="P217" s="3">
+        <v>0.59099999999999997</v>
+      </c>
       <c r="V217" s="1">
         <v>18</v>
       </c>
@@ -13121,6 +15087,15 @@
       <c r="L218" s="3">
         <v>0.65</v>
       </c>
+      <c r="N218" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="O218" s="3">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="P218" s="3">
+        <v>0.65</v>
+      </c>
       <c r="V218" s="1">
         <v>17</v>
       </c>
@@ -13177,6 +15152,15 @@
       <c r="L219" s="3">
         <v>0.59</v>
       </c>
+      <c r="N219" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="O219" s="3">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="P219" s="3">
+        <v>0.59</v>
+      </c>
       <c r="V219" s="1">
         <v>18</v>
       </c>
@@ -13233,6 +15217,15 @@
       <c r="L220" s="3">
         <v>0.58699999999999997</v>
       </c>
+      <c r="N220" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O220" s="3">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="P220" s="3">
+        <v>0.58699999999999997</v>
+      </c>
       <c r="V220" s="1">
         <v>18</v>
       </c>
@@ -13289,6 +15282,15 @@
       <c r="L221" s="3">
         <v>0.6</v>
       </c>
+      <c r="N221" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="O221" s="3">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="P221" s="3">
+        <v>0.6</v>
+      </c>
       <c r="V221" s="1">
         <v>21</v>
       </c>
@@ -13345,6 +15347,15 @@
       <c r="L222" s="3">
         <v>0.58699999999999997</v>
       </c>
+      <c r="N222" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="O222" s="3">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="P222" s="3">
+        <v>0.58699999999999997</v>
+      </c>
       <c r="V222" s="1">
         <v>20</v>
       </c>
@@ -13401,6 +15412,15 @@
       <c r="L223" s="3">
         <v>0.60899999999999999</v>
       </c>
+      <c r="N223" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O223" s="3">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="P223" s="3">
+        <v>0.60899999999999999</v>
+      </c>
       <c r="V223" s="1">
         <v>18</v>
       </c>
@@ -13457,6 +15477,15 @@
       <c r="L224" s="3">
         <v>0.60599999999999998</v>
       </c>
+      <c r="N224" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O224" s="3">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="P224" s="3">
+        <v>0.60599999999999998</v>
+      </c>
       <c r="V224" s="1">
         <v>18</v>
       </c>
@@ -13513,6 +15542,15 @@
       <c r="L225" s="3">
         <v>0.62</v>
       </c>
+      <c r="N225" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O225" s="3">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="P225" s="3">
+        <v>0.62</v>
+      </c>
       <c r="V225" s="1">
         <v>18</v>
       </c>
@@ -13569,6 +15607,15 @@
       <c r="L226" s="3">
         <v>0.65200000000000002</v>
       </c>
+      <c r="N226" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="O226" s="3">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="P226" s="3">
+        <v>0.65200000000000002</v>
+      </c>
       <c r="V226" s="1">
         <v>17</v>
       </c>
@@ -13625,6 +15672,15 @@
       <c r="L227" s="3">
         <v>0.59499999999999997</v>
       </c>
+      <c r="N227" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O227" s="3">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="P227" s="3">
+        <v>0.59499999999999997</v>
+      </c>
       <c r="V227" s="1">
         <v>18</v>
       </c>
@@ -13681,6 +15737,15 @@
       <c r="L228" s="3">
         <v>0.63100000000000001</v>
       </c>
+      <c r="N228" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="O228" s="3">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="P228" s="3">
+        <v>0.63100000000000001</v>
+      </c>
       <c r="V228" s="1">
         <v>18</v>
       </c>
@@ -13737,6 +15802,15 @@
       <c r="L229" s="3">
         <v>0.58499999999999996</v>
       </c>
+      <c r="N229" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O229" s="3">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="P229" s="3">
+        <v>0.58499999999999996</v>
+      </c>
       <c r="V229" s="1">
         <v>18</v>
       </c>
@@ -13793,6 +15867,15 @@
       <c r="L230" s="3">
         <v>0.59299999999999997</v>
       </c>
+      <c r="N230" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O230" s="3">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="P230" s="3">
+        <v>0.59299999999999997</v>
+      </c>
       <c r="V230" s="1">
         <v>17</v>
       </c>
@@ -13849,6 +15932,15 @@
       <c r="L231" s="3">
         <v>0.59099999999999997</v>
       </c>
+      <c r="N231" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O231" s="3">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="P231" s="3">
+        <v>0.59099999999999997</v>
+      </c>
       <c r="V231" s="1">
         <v>18</v>
       </c>
@@ -13905,6 +15997,15 @@
       <c r="L232" s="3">
         <v>0.64700000000000002</v>
       </c>
+      <c r="N232" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O232" s="3">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="P232" s="3">
+        <v>0.64700000000000002</v>
+      </c>
       <c r="V232" s="1">
         <v>18</v>
       </c>
@@ -13961,6 +16062,15 @@
       <c r="L233" s="3">
         <v>0.57799999999999996</v>
       </c>
+      <c r="N233" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="O233" s="3">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="P233" s="3">
+        <v>0.57799999999999996</v>
+      </c>
       <c r="V233" s="1">
         <v>18</v>
       </c>
@@ -14017,6 +16127,15 @@
       <c r="L234" s="3">
         <v>0.58299999999999996</v>
       </c>
+      <c r="N234" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O234" s="3">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="P234" s="3">
+        <v>0.58299999999999996</v>
+      </c>
       <c r="V234" s="1">
         <v>18</v>
       </c>
@@ -14073,6 +16192,15 @@
       <c r="L235" s="3">
         <v>0.60399999999999998</v>
       </c>
+      <c r="N235" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="O235" s="3">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="P235" s="3">
+        <v>0.60399999999999998</v>
+      </c>
       <c r="V235" s="1">
         <v>17</v>
       </c>
@@ -14129,6 +16257,15 @@
       <c r="L236" s="3">
         <v>0.59399999999999997</v>
       </c>
+      <c r="N236" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="O236" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="P236" s="3">
+        <v>0.59399999999999997</v>
+      </c>
       <c r="V236" s="1">
         <v>18</v>
       </c>
@@ -14185,6 +16322,15 @@
       <c r="L237" s="3">
         <v>0.59399999999999997</v>
       </c>
+      <c r="N237" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="O237" s="3">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="P237" s="3">
+        <v>0.59399999999999997</v>
+      </c>
       <c r="V237" s="1">
         <v>18</v>
       </c>
@@ -14241,6 +16387,15 @@
       <c r="L238" s="3">
         <v>0.626</v>
       </c>
+      <c r="N238" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="O238" s="3">
+        <v>0.314</v>
+      </c>
+      <c r="P238" s="3">
+        <v>0.626</v>
+      </c>
       <c r="V238" s="1">
         <v>18</v>
       </c>
@@ -14297,6 +16452,15 @@
       <c r="L239" s="3">
         <v>0.61299999999999999</v>
       </c>
+      <c r="N239" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="O239" s="3">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="P239" s="3">
+        <v>0.61299999999999999</v>
+      </c>
       <c r="V239" s="1">
         <v>17</v>
       </c>
@@ -14353,6 +16517,15 @@
       <c r="L240" s="3">
         <v>0.58399999999999996</v>
       </c>
+      <c r="N240" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O240" s="3">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="P240" s="3">
+        <v>0.58399999999999996</v>
+      </c>
       <c r="V240" s="1">
         <v>18</v>
       </c>
@@ -14409,6 +16582,15 @@
       <c r="L241" s="3">
         <v>0.63500000000000001</v>
       </c>
+      <c r="N241" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="O241" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="P241" s="3">
+        <v>0.63500000000000001</v>
+      </c>
       <c r="V241" s="1">
         <v>18</v>
       </c>
@@ -14465,6 +16647,15 @@
       <c r="L242" s="3">
         <v>0.59599999999999997</v>
       </c>
+      <c r="N242" s="3">
+        <v>3.1E-2</v>
+      </c>
+      <c r="O242" s="3">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="P242" s="3">
+        <v>0.59599999999999997</v>
+      </c>
       <c r="V242" s="1">
         <v>17</v>
       </c>
@@ -14521,6 +16712,15 @@
       <c r="L243" s="3">
         <v>0.60699999999999998</v>
       </c>
+      <c r="N243" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="O243" s="3">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="P243" s="3">
+        <v>0.60699999999999998</v>
+      </c>
       <c r="V243" s="1">
         <v>18</v>
       </c>
@@ -14577,6 +16777,15 @@
       <c r="L244" s="3">
         <v>0.59699999999999998</v>
       </c>
+      <c r="N244" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O244" s="3">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="P244" s="3">
+        <v>0.59699999999999998</v>
+      </c>
       <c r="V244" s="1">
         <v>18</v>
       </c>
@@ -14633,6 +16842,15 @@
       <c r="L245" s="3">
         <v>0.60799999999999998</v>
       </c>
+      <c r="N245" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="O245" s="3">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="P245" s="3">
+        <v>0.60799999999999998</v>
+      </c>
       <c r="V245" s="1">
         <v>17</v>
       </c>
@@ -14689,6 +16907,15 @@
       <c r="L246" s="3">
         <v>0.66300000000000003</v>
       </c>
+      <c r="N246" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="O246" s="3">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="P246" s="3">
+        <v>0.66300000000000003</v>
+      </c>
       <c r="V246" s="1">
         <v>18</v>
       </c>
@@ -14745,6 +16972,15 @@
       <c r="L247" s="3">
         <v>0.61</v>
       </c>
+      <c r="N247" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="O247" s="3">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="P247" s="3">
+        <v>0.61</v>
+      </c>
       <c r="V247" s="1">
         <v>18</v>
       </c>
@@ -14801,6 +17037,15 @@
       <c r="L248" s="3">
         <v>0.63400000000000001</v>
       </c>
+      <c r="N248" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="O248" s="3">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="P248" s="3">
+        <v>0.63400000000000001</v>
+      </c>
       <c r="V248" s="1">
         <v>17</v>
       </c>
@@ -14857,6 +17102,15 @@
       <c r="L249" s="3">
         <v>0.64300000000000002</v>
       </c>
+      <c r="N249" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="O249" s="3">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="P249" s="3">
+        <v>0.64300000000000002</v>
+      </c>
       <c r="V249" s="1">
         <v>18</v>
       </c>
@@ -14913,6 +17167,15 @@
       <c r="L250" s="3">
         <v>0.626</v>
       </c>
+      <c r="N250" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O250" s="3">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="P250" s="3">
+        <v>0.626</v>
+      </c>
       <c r="V250" s="1">
         <v>18</v>
       </c>
@@ -14969,6 +17232,15 @@
       <c r="L251" s="3">
         <v>0.59699999999999998</v>
       </c>
+      <c r="N251" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O251" s="3">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="P251" s="3">
+        <v>0.59699999999999998</v>
+      </c>
       <c r="V251" s="1">
         <v>17</v>
       </c>
@@ -15025,6 +17297,15 @@
       <c r="L252" s="3">
         <v>0.61099999999999999</v>
       </c>
+      <c r="N252" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="O252" s="3">
+        <v>0.317</v>
+      </c>
+      <c r="P252" s="3">
+        <v>0.61099999999999999</v>
+      </c>
       <c r="V252" s="1">
         <v>18</v>
       </c>
@@ -15081,6 +17362,15 @@
       <c r="L253" s="3">
         <v>0.64300000000000002</v>
       </c>
+      <c r="N253" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O253" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="P253" s="3">
+        <v>0.64300000000000002</v>
+      </c>
       <c r="V253" s="1">
         <v>18</v>
       </c>
@@ -15137,6 +17427,15 @@
       <c r="L254" s="3">
         <v>0.58699999999999997</v>
       </c>
+      <c r="N254" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O254" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="P254" s="3">
+        <v>0.58699999999999997</v>
+      </c>
       <c r="V254" s="1">
         <v>17</v>
       </c>
@@ -15193,6 +17492,15 @@
       <c r="L255" s="3">
         <v>0.58799999999999997</v>
       </c>
+      <c r="N255" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O255" s="3">
+        <v>0.311</v>
+      </c>
+      <c r="P255" s="3">
+        <v>0.58799999999999997</v>
+      </c>
       <c r="V255" s="1">
         <v>18</v>
       </c>
@@ -15249,6 +17557,15 @@
       <c r="L256" s="3">
         <v>0.58199999999999996</v>
       </c>
+      <c r="N256" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O256" s="3">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="P256" s="3">
+        <v>0.58199999999999996</v>
+      </c>
       <c r="V256" s="1">
         <v>18</v>
       </c>
@@ -15305,6 +17622,15 @@
       <c r="L257" s="3">
         <v>0.58599999999999997</v>
       </c>
+      <c r="N257" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="O257" s="3">
+        <v>0.318</v>
+      </c>
+      <c r="P257" s="3">
+        <v>0.58599999999999997</v>
+      </c>
       <c r="V257" s="1">
         <v>17</v>
       </c>
@@ -15361,6 +17687,15 @@
       <c r="L258" s="3">
         <v>0.59199999999999997</v>
       </c>
+      <c r="N258" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O258" s="3">
+        <v>0.311</v>
+      </c>
+      <c r="P258" s="3">
+        <v>0.59199999999999997</v>
+      </c>
       <c r="V258" s="1">
         <v>18</v>
       </c>
@@ -15417,6 +17752,15 @@
       <c r="L259" s="3">
         <v>0.59299999999999997</v>
       </c>
+      <c r="N259" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="O259" s="3">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="P259" s="3">
+        <v>0.59299999999999997</v>
+      </c>
       <c r="V259" s="1">
         <v>18</v>
       </c>
@@ -15473,6 +17817,15 @@
       <c r="L260" s="3">
         <v>0.58499999999999996</v>
       </c>
+      <c r="N260" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="O260" s="3">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="P260" s="3">
+        <v>0.58499999999999996</v>
+      </c>
       <c r="V260" s="1">
         <v>17</v>
       </c>
@@ -15529,6 +17882,15 @@
       <c r="L261" s="3">
         <v>0.64500000000000002</v>
       </c>
+      <c r="N261" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="O261" s="3">
+        <v>0.315</v>
+      </c>
+      <c r="P261" s="3">
+        <v>0.64500000000000002</v>
+      </c>
       <c r="V261" s="1">
         <v>18</v>
       </c>
@@ -15585,6 +17947,15 @@
       <c r="L262" s="3">
         <v>0.58499999999999996</v>
       </c>
+      <c r="N262" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O262" s="3">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="P262" s="3">
+        <v>0.58499999999999996</v>
+      </c>
       <c r="V262" s="1">
         <v>18</v>
       </c>
@@ -15641,6 +18012,15 @@
       <c r="L263" s="3">
         <v>0.58799999999999997</v>
       </c>
+      <c r="N263" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O263" s="3">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="P263" s="3">
+        <v>0.58799999999999997</v>
+      </c>
       <c r="V263" s="1">
         <v>17</v>
       </c>
@@ -15697,6 +18077,15 @@
       <c r="L264" s="3">
         <v>0.61099999999999999</v>
       </c>
+      <c r="N264" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O264" s="3">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="P264" s="3">
+        <v>0.61099999999999999</v>
+      </c>
       <c r="V264" s="1">
         <v>18</v>
       </c>
@@ -15753,6 +18142,15 @@
       <c r="L265" s="3">
         <v>0.58699999999999997</v>
       </c>
+      <c r="N265" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O265" s="3">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="P265" s="3">
+        <v>0.58699999999999997</v>
+      </c>
       <c r="V265" s="1">
         <v>18</v>
       </c>
@@ -15809,6 +18207,15 @@
       <c r="L266" s="3">
         <v>0.58099999999999996</v>
       </c>
+      <c r="N266" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O266" s="3">
+        <v>0.311</v>
+      </c>
+      <c r="P266" s="3">
+        <v>0.58099999999999996</v>
+      </c>
       <c r="V266" s="1">
         <v>17</v>
       </c>
@@ -15865,6 +18272,15 @@
       <c r="L267" s="3">
         <v>0.60899999999999999</v>
       </c>
+      <c r="N267" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O267" s="3">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="P267" s="3">
+        <v>0.60899999999999999</v>
+      </c>
       <c r="V267" s="1">
         <v>17</v>
       </c>
@@ -15921,6 +18337,15 @@
       <c r="L268" s="3">
         <v>0.58299999999999996</v>
       </c>
+      <c r="N268" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="O268" s="3">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="P268" s="3">
+        <v>0.58299999999999996</v>
+      </c>
       <c r="V268" s="1">
         <v>18</v>
       </c>
@@ -15977,6 +18402,15 @@
       <c r="L269" s="3">
         <v>0.58399999999999996</v>
       </c>
+      <c r="N269" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O269" s="3">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="P269" s="3">
+        <v>0.58399999999999996</v>
+      </c>
       <c r="V269" s="1">
         <v>18</v>
       </c>
@@ -16033,6 +18467,15 @@
       <c r="L270" s="3">
         <v>0.59899999999999998</v>
       </c>
+      <c r="N270" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="O270" s="3">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="P270" s="3">
+        <v>0.59899999999999998</v>
+      </c>
       <c r="V270" s="1">
         <v>17</v>
       </c>
@@ -16089,6 +18532,15 @@
       <c r="L271" s="3">
         <v>0.58799999999999997</v>
       </c>
+      <c r="N271" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O271" s="3">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="P271" s="3">
+        <v>0.58799999999999997</v>
+      </c>
       <c r="V271" s="1">
         <v>18</v>
       </c>
@@ -16145,6 +18597,15 @@
       <c r="L272" s="3">
         <v>0.59099999999999997</v>
       </c>
+      <c r="N272" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O272" s="3">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="P272" s="3">
+        <v>0.59099999999999997</v>
+      </c>
       <c r="V272" s="1">
         <v>17</v>
       </c>
@@ -16201,6 +18662,15 @@
       <c r="L273" s="3">
         <v>0.58499999999999996</v>
       </c>
+      <c r="N273" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O273" s="3">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="P273" s="3">
+        <v>0.58499999999999996</v>
+      </c>
       <c r="V273" s="1">
         <v>18</v>
       </c>
@@ -16257,6 +18727,15 @@
       <c r="L274" s="3">
         <v>0.58599999999999997</v>
       </c>
+      <c r="N274" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O274" s="3">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="P274" s="3">
+        <v>0.58599999999999997</v>
+      </c>
       <c r="V274" s="1">
         <v>18</v>
       </c>
@@ -16313,6 +18792,15 @@
       <c r="L275" s="3">
         <v>0.60199999999999998</v>
       </c>
+      <c r="N275" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O275" s="3">
+        <v>0.316</v>
+      </c>
+      <c r="P275" s="3">
+        <v>0.60199999999999998</v>
+      </c>
       <c r="V275" s="1">
         <v>18</v>
       </c>
@@ -16369,6 +18857,15 @@
       <c r="L276" s="3">
         <v>0.58499999999999996</v>
       </c>
+      <c r="N276" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O276" s="3">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="P276" s="3">
+        <v>0.58499999999999996</v>
+      </c>
       <c r="V276" s="1">
         <v>17</v>
       </c>
@@ -16425,6 +18922,15 @@
       <c r="L277" s="3">
         <v>0.622</v>
       </c>
+      <c r="N277" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="O277" s="3">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="P277" s="3">
+        <v>0.622</v>
+      </c>
       <c r="V277" s="1">
         <v>18</v>
       </c>
@@ -16481,6 +18987,15 @@
       <c r="L278" s="3">
         <v>0.59699999999999998</v>
       </c>
+      <c r="N278" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O278" s="3">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="P278" s="3">
+        <v>0.59699999999999998</v>
+      </c>
       <c r="V278" s="1">
         <v>57</v>
       </c>
@@ -16537,6 +19052,15 @@
       <c r="L279" s="3">
         <v>0.58299999999999996</v>
       </c>
+      <c r="N279" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="O279" s="3">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="P279" s="3">
+        <v>0.58299999999999996</v>
+      </c>
       <c r="V279" s="1">
         <v>28</v>
       </c>
@@ -16593,6 +19117,15 @@
       <c r="L280" s="3">
         <v>0.6</v>
       </c>
+      <c r="N280" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="O280" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="P280" s="3">
+        <v>0.6</v>
+      </c>
       <c r="V280" s="1">
         <v>17</v>
       </c>
@@ -16649,6 +19182,15 @@
       <c r="L281" s="3">
         <v>0.63400000000000001</v>
       </c>
+      <c r="N281" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="O281" s="3">
+        <v>0.311</v>
+      </c>
+      <c r="P281" s="3">
+        <v>0.63400000000000001</v>
+      </c>
       <c r="V281" s="1">
         <v>18</v>
       </c>
@@ -16705,6 +19247,15 @@
       <c r="L282" s="3">
         <v>0.58799999999999997</v>
       </c>
+      <c r="N282" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="O282" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="P282" s="3">
+        <v>0.58799999999999997</v>
+      </c>
       <c r="V282" s="1">
         <v>18</v>
       </c>
@@ -16761,6 +19312,15 @@
       <c r="L283" s="3">
         <v>0.58799999999999997</v>
       </c>
+      <c r="N283" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O283" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="P283" s="3">
+        <v>0.58799999999999997</v>
+      </c>
       <c r="V283" s="1">
         <v>17</v>
       </c>
@@ -16817,6 +19377,15 @@
       <c r="L284" s="3">
         <v>0.64100000000000001</v>
       </c>
+      <c r="N284" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="O284" s="3">
+        <v>0.314</v>
+      </c>
+      <c r="P284" s="3">
+        <v>0.64100000000000001</v>
+      </c>
       <c r="V284" s="1">
         <v>18</v>
       </c>
@@ -16873,6 +19442,15 @@
       <c r="L285" s="3">
         <v>0.60799999999999998</v>
       </c>
+      <c r="N285" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O285" s="3">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="P285" s="3">
+        <v>0.60799999999999998</v>
+      </c>
       <c r="V285" s="1">
         <v>18</v>
       </c>
@@ -16929,6 +19507,15 @@
       <c r="L286" s="3">
         <v>0.58799999999999997</v>
       </c>
+      <c r="N286" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O286" s="3">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="P286" s="3">
+        <v>0.58799999999999997</v>
+      </c>
       <c r="V286" s="1">
         <v>18</v>
       </c>
@@ -16985,6 +19572,15 @@
       <c r="L287" s="3">
         <v>0.58399999999999996</v>
       </c>
+      <c r="N287" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="O287" s="3">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="P287" s="3">
+        <v>0.58399999999999996</v>
+      </c>
       <c r="V287" s="1">
         <v>17</v>
       </c>
@@ -17041,6 +19637,15 @@
       <c r="L288" s="3">
         <v>0.58099999999999996</v>
       </c>
+      <c r="N288" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O288" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="P288" s="3">
+        <v>0.58099999999999996</v>
+      </c>
       <c r="V288" s="1">
         <v>18</v>
       </c>
@@ -17097,6 +19702,15 @@
       <c r="L289" s="3">
         <v>0.629</v>
       </c>
+      <c r="N289" s="3">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="O289" s="3">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="P289" s="3">
+        <v>0.629</v>
+      </c>
       <c r="V289" s="1">
         <v>18</v>
       </c>
@@ -17153,6 +19767,15 @@
       <c r="L290" s="3">
         <v>0.59399999999999997</v>
       </c>
+      <c r="N290" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O290" s="3">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="P290" s="3">
+        <v>0.59399999999999997</v>
+      </c>
       <c r="V290" s="1">
         <v>18</v>
       </c>
@@ -17209,6 +19832,15 @@
       <c r="L291" s="3">
         <v>0.59599999999999997</v>
       </c>
+      <c r="N291" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O291" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="P291" s="3">
+        <v>0.59599999999999997</v>
+      </c>
       <c r="V291" s="1">
         <v>17</v>
       </c>
@@ -17265,6 +19897,15 @@
       <c r="L292" s="3">
         <v>0.61</v>
       </c>
+      <c r="N292" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O292" s="3">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="P292" s="3">
+        <v>0.61</v>
+      </c>
       <c r="V292" s="1">
         <v>18</v>
       </c>
@@ -17321,6 +19962,15 @@
       <c r="L293" s="3">
         <v>0.59099999999999997</v>
       </c>
+      <c r="N293" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="O293" s="3">
+        <v>0.315</v>
+      </c>
+      <c r="P293" s="3">
+        <v>0.59099999999999997</v>
+      </c>
       <c r="V293" s="1">
         <v>18</v>
       </c>
@@ -17377,6 +20027,15 @@
       <c r="L294" s="3">
         <v>0.58799999999999997</v>
       </c>
+      <c r="N294" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="O294" s="3">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="P294" s="3">
+        <v>0.58799999999999997</v>
+      </c>
       <c r="V294" s="1">
         <v>18</v>
       </c>
@@ -17433,6 +20092,15 @@
       <c r="L295" s="3">
         <v>0.58199999999999996</v>
       </c>
+      <c r="N295" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O295" s="3">
+        <v>0.317</v>
+      </c>
+      <c r="P295" s="3">
+        <v>0.58199999999999996</v>
+      </c>
       <c r="V295" s="1">
         <v>17</v>
       </c>
@@ -17489,6 +20157,15 @@
       <c r="L296" s="3">
         <v>0.60599999999999998</v>
       </c>
+      <c r="N296" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="O296" s="3">
+        <v>0.307</v>
+      </c>
+      <c r="P296" s="3">
+        <v>0.60599999999999998</v>
+      </c>
       <c r="V296" s="1">
         <v>18</v>
       </c>
@@ -17545,6 +20222,15 @@
       <c r="L297" s="3">
         <v>0.69399999999999995</v>
       </c>
+      <c r="N297" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="O297" s="3">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="P297" s="3">
+        <v>0.69399999999999995</v>
+      </c>
       <c r="V297" s="1">
         <v>18</v>
       </c>
@@ -17601,6 +20287,15 @@
       <c r="L298" s="3">
         <v>0.57799999999999996</v>
       </c>
+      <c r="N298" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O298" s="3">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="P298" s="3">
+        <v>0.57799999999999996</v>
+      </c>
       <c r="V298" s="1">
         <v>17</v>
       </c>
@@ -17657,6 +20352,15 @@
       <c r="L299" s="3">
         <v>0.61399999999999999</v>
       </c>
+      <c r="N299" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O299" s="3">
+        <v>0.307</v>
+      </c>
+      <c r="P299" s="3">
+        <v>0.61399999999999999</v>
+      </c>
       <c r="V299" s="1">
         <v>18</v>
       </c>
@@ -17713,6 +20417,15 @@
       <c r="L300" s="3">
         <v>0.60399999999999998</v>
       </c>
+      <c r="N300" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O300" s="3">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="P300" s="3">
+        <v>0.60399999999999998</v>
+      </c>
       <c r="V300" s="1">
         <v>18</v>
       </c>
@@ -17769,6 +20482,15 @@
       <c r="L301" s="3">
         <v>0.59399999999999997</v>
       </c>
+      <c r="N301" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="O301" s="3">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="P301" s="3">
+        <v>0.59399999999999997</v>
+      </c>
       <c r="V301" s="1">
         <v>17</v>
       </c>
@@ -17825,6 +20547,15 @@
       <c r="L302" s="3">
         <v>0.58299999999999996</v>
       </c>
+      <c r="N302" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="O302" s="3">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="P302" s="3">
+        <v>0.58299999999999996</v>
+      </c>
       <c r="V302" s="1">
         <v>18</v>
       </c>
@@ -17881,6 +20612,15 @@
       <c r="L303" s="3">
         <v>0.59</v>
       </c>
+      <c r="N303" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O303" s="3">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="P303" s="3">
+        <v>0.59</v>
+      </c>
       <c r="V303" s="1">
         <v>18</v>
       </c>
@@ -17937,6 +20677,15 @@
       <c r="L304" s="3">
         <v>0.58499999999999996</v>
       </c>
+      <c r="N304" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="O304" s="3">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="P304" s="3">
+        <v>0.58499999999999996</v>
+      </c>
       <c r="V304" s="1">
         <v>17</v>
       </c>
@@ -17993,6 +20742,15 @@
       <c r="L305" s="3">
         <v>0.60599999999999998</v>
       </c>
+      <c r="N305" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="O305" s="3">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="P305" s="3">
+        <v>0.60599999999999998</v>
+      </c>
       <c r="V305" s="1">
         <v>18</v>
       </c>
@@ -18049,6 +20807,15 @@
       <c r="L306" s="3">
         <v>0.58399999999999996</v>
       </c>
+      <c r="N306" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O306" s="3">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="P306" s="3">
+        <v>0.58399999999999996</v>
+      </c>
       <c r="V306" s="1">
         <v>18</v>
       </c>
@@ -18105,6 +20872,15 @@
       <c r="L307" s="3">
         <v>0.58099999999999996</v>
       </c>
+      <c r="N307" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O307" s="3">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="P307" s="3">
+        <v>0.58099999999999996</v>
+      </c>
       <c r="V307" s="1">
         <v>17</v>
       </c>
@@ -18161,6 +20937,15 @@
       <c r="L308" s="3">
         <v>0.622</v>
       </c>
+      <c r="N308" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="O308" s="3">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="P308" s="3">
+        <v>0.622</v>
+      </c>
       <c r="V308" s="1">
         <v>18</v>
       </c>
@@ -18217,6 +21002,15 @@
       <c r="L309" s="3">
         <v>0.61</v>
       </c>
+      <c r="N309" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O309" s="3">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="P309" s="3">
+        <v>0.61</v>
+      </c>
       <c r="V309" s="1">
         <v>18</v>
       </c>
@@ -18273,6 +21067,15 @@
       <c r="L310" s="3">
         <v>0.59299999999999997</v>
       </c>
+      <c r="N310" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="O310" s="3">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="P310" s="3">
+        <v>0.59299999999999997</v>
+      </c>
       <c r="V310" s="1">
         <v>17</v>
       </c>
@@ -18329,6 +21132,15 @@
       <c r="L311" s="3">
         <v>0.7</v>
       </c>
+      <c r="N311" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O311" s="3">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="P311" s="3">
+        <v>0.7</v>
+      </c>
       <c r="V311" s="1">
         <v>18</v>
       </c>
@@ -18385,6 +21197,15 @@
       <c r="L312" s="3">
         <v>0.7</v>
       </c>
+      <c r="N312" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O312" s="3">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="P312" s="3">
+        <v>0.7</v>
+      </c>
       <c r="V312" s="1">
         <v>18</v>
       </c>
@@ -18455,6 +21276,9 @@
       <c r="J314" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="N314" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="V314" s="1">
         <v>18</v>
       </c>
@@ -18516,6 +21340,15 @@
       <c r="L315" s="2">
         <v>15</v>
       </c>
+      <c r="N315" s="2">
+        <v>10</v>
+      </c>
+      <c r="O315" s="2">
+        <v>12</v>
+      </c>
+      <c r="P315" s="2">
+        <v>15</v>
+      </c>
       <c r="V315" s="1">
         <v>18</v>
       </c>
@@ -18575,6 +21408,15 @@
       <c r="L316" s="3">
         <v>6.1676000000000002</v>
       </c>
+      <c r="N316" s="3">
+        <v>2.3773309999999999E-2</v>
+      </c>
+      <c r="O316" s="3">
+        <v>0.61585559999999995</v>
+      </c>
+      <c r="P316" s="3">
+        <v>135.77880000000002</v>
+      </c>
       <c r="V316" s="1">
         <v>17</v>
       </c>
@@ -18719,7 +21561,7 @@
         <v>3.3759999999999999</v>
       </c>
     </row>
-    <row r="321" spans="22:32">
+    <row r="321" spans="9:32">
       <c r="V321" s="1">
         <v>18</v>
       </c>
@@ -18748,7 +21590,7 @@
         <v>3.3759999999999999</v>
       </c>
     </row>
-    <row r="322" spans="22:32">
+    <row r="322" spans="9:32">
       <c r="V322" s="1">
         <v>18</v>
       </c>
@@ -18777,7 +21619,11 @@
         <v>3.375</v>
       </c>
     </row>
-    <row r="323" spans="22:32">
+    <row r="323" spans="9:32">
+      <c r="I323" s="3">
+        <f>AVERAGE(I324:I333)</f>
+        <v>135.77880000000002</v>
+      </c>
       <c r="V323" s="1">
         <v>17</v>
       </c>
@@ -18806,7 +21652,10 @@
         <v>3.3740000000000001</v>
       </c>
     </row>
-    <row r="324" spans="22:32">
+    <row r="324" spans="9:32">
+      <c r="I324" s="3">
+        <v>130.81700000000001</v>
+      </c>
       <c r="V324" s="1">
         <v>18</v>
       </c>
@@ -18835,7 +21684,10 @@
         <v>3.3769999999999998</v>
       </c>
     </row>
-    <row r="325" spans="22:32">
+    <row r="325" spans="9:32">
+      <c r="I325" s="3">
+        <v>144.85599999999999</v>
+      </c>
       <c r="V325" s="1">
         <v>18</v>
       </c>
@@ -18864,7 +21716,10 @@
         <v>3.379</v>
       </c>
     </row>
-    <row r="326" spans="22:32">
+    <row r="326" spans="9:32">
+      <c r="I326" s="3">
+        <v>152.482</v>
+      </c>
       <c r="V326" s="1">
         <v>17</v>
       </c>
@@ -18893,7 +21748,10 @@
         <v>3.375</v>
       </c>
     </row>
-    <row r="327" spans="22:32">
+    <row r="327" spans="9:32">
+      <c r="I327" s="3">
+        <v>129.12299999999999</v>
+      </c>
       <c r="V327" s="1">
         <v>18</v>
       </c>
@@ -18922,7 +21780,10 @@
         <v>3.3730000000000002</v>
       </c>
     </row>
-    <row r="328" spans="22:32">
+    <row r="328" spans="9:32">
+      <c r="I328" s="3">
+        <v>140.24199999999999</v>
+      </c>
       <c r="V328" s="1">
         <v>18</v>
       </c>
@@ -18951,7 +21812,10 @@
         <v>3.375</v>
       </c>
     </row>
-    <row r="329" spans="22:32">
+    <row r="329" spans="9:32">
+      <c r="I329" s="3">
+        <v>138.88499999999999</v>
+      </c>
       <c r="V329" s="1">
         <v>17</v>
       </c>
@@ -18980,7 +21844,10 @@
         <v>3.375</v>
       </c>
     </row>
-    <row r="330" spans="22:32">
+    <row r="330" spans="9:32">
+      <c r="I330" s="3">
+        <v>134.517</v>
+      </c>
       <c r="V330" s="1">
         <v>18</v>
       </c>
@@ -19009,7 +21876,10 @@
         <v>3.3759999999999999</v>
       </c>
     </row>
-    <row r="331" spans="22:32">
+    <row r="331" spans="9:32">
+      <c r="I331" s="3">
+        <v>126.35299999999999</v>
+      </c>
       <c r="V331" s="1">
         <v>20</v>
       </c>
@@ -19038,7 +21908,10 @@
         <v>3.375</v>
       </c>
     </row>
-    <row r="332" spans="22:32">
+    <row r="332" spans="9:32">
+      <c r="I332" s="3">
+        <v>130.62100000000001</v>
+      </c>
       <c r="V332" s="1">
         <v>51</v>
       </c>
@@ -19067,7 +21940,10 @@
         <v>3.375</v>
       </c>
     </row>
-    <row r="333" spans="22:32">
+    <row r="333" spans="9:32">
+      <c r="I333" s="3">
+        <v>129.892</v>
+      </c>
       <c r="V333" s="1">
         <v>19</v>
       </c>
@@ -19096,7 +21972,7 @@
         <v>3.375</v>
       </c>
     </row>
-    <row r="334" spans="22:32">
+    <row r="334" spans="9:32">
       <c r="V334" s="1">
         <v>18</v>
       </c>
@@ -19125,7 +22001,7 @@
         <v>3.3759999999999999</v>
       </c>
     </row>
-    <row r="335" spans="22:32">
+    <row r="335" spans="9:32">
       <c r="V335" s="1">
         <v>18</v>
       </c>
@@ -19154,7 +22030,7 @@
         <v>3.375</v>
       </c>
     </row>
-    <row r="336" spans="22:32">
+    <row r="336" spans="9:32">
       <c r="V336" s="1">
         <v>17</v>
       </c>
